--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.2E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_3.2E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4702 +417,4222 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>94</v>
+        <v>110.2</v>
       </c>
       <c r="B2">
-        <v>32226.07683917371</v>
+        <v>49681.01072641375</v>
       </c>
       <c r="C2">
-        <v>401.0402400495814</v>
+        <v>2788.594892774639</v>
       </c>
       <c r="D2">
-        <v>4651.389045290508</v>
+        <v>56680.49838649375</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2786.839500493612</v>
       </c>
       <c r="F2">
-        <v>684.9905902607447</v>
+        <v>747.471376847177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>7136.076839173711</v>
+        <v>47312.99927766949</v>
       </c>
       <c r="C3">
-        <v>1051.040240049581</v>
+        <v>3096.59143489205</v>
       </c>
       <c r="D3">
-        <v>5231.389045290508</v>
+        <v>52063.80927891002</v>
       </c>
       <c r="E3">
-        <v>910</v>
+        <v>2066.179789219055</v>
       </c>
       <c r="F3">
-        <v>304.9905902607447</v>
+        <v>403.7791835296595</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>93.90000000000001</v>
+        <v>115.6</v>
       </c>
       <c r="B4">
-        <v>8080</v>
+        <v>47709.84578954983</v>
       </c>
       <c r="C4">
-        <v>3086.144198597077</v>
+        <v>2209.731081143951</v>
       </c>
       <c r="D4">
-        <v>6197.603593557155</v>
+        <v>45077.59796472512</v>
       </c>
       <c r="E4">
-        <v>506.8845207600998</v>
+        <v>2187.710057321252</v>
       </c>
       <c r="F4">
-        <v>684.8599786488359</v>
+        <v>669.6364325919651</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>93.90000000000001</v>
+        <v>118.3</v>
       </c>
       <c r="B5">
-        <v>6520</v>
+        <v>43724.26332111792</v>
       </c>
       <c r="C5">
-        <v>3606.144198597077</v>
+        <v>780.2991753285996</v>
       </c>
       <c r="D5">
-        <v>6827.603593557155</v>
+        <v>40861.1477538408</v>
       </c>
       <c r="E5">
-        <v>896.8845207600998</v>
+        <v>1183.145335735072</v>
       </c>
       <c r="F5">
-        <v>794.8599786488359</v>
+        <v>465.7189604643592</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>93.90000000000001</v>
+        <v>120.6</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>37138.39677393509</v>
       </c>
       <c r="C6">
-        <v>4546.144198597077</v>
+        <v>961.1534777822026</v>
       </c>
       <c r="D6">
-        <v>7207.603593557155</v>
+        <v>35455.65312975417</v>
       </c>
       <c r="E6">
-        <v>486.8845207600998</v>
+        <v>1552.960572902396</v>
       </c>
       <c r="F6">
-        <v>1164.859978648836</v>
+        <v>500.9003730963997</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>122.8</v>
       </c>
       <c r="B7">
-        <v>11196.07683917371</v>
+        <v>32294.95920706462</v>
       </c>
       <c r="C7">
-        <v>5111.040240049581</v>
+        <v>324.5793323030293</v>
       </c>
       <c r="D7">
-        <v>8101.389045290508</v>
+        <v>32580.39740236694</v>
       </c>
       <c r="E7">
-        <v>1360</v>
+        <v>1448.870799758101</v>
       </c>
       <c r="F7">
-        <v>974.9905902607447</v>
+        <v>895.85650691835</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>93.90000000000001</v>
+        <v>124.9</v>
       </c>
       <c r="B8">
-        <v>9800</v>
+        <v>24763.9506205064</v>
       </c>
       <c r="C8">
-        <v>5376.144198597077</v>
+        <v>380.5767388910936</v>
       </c>
       <c r="D8">
-        <v>8057.603593557155</v>
+        <v>29085.38057167912</v>
       </c>
       <c r="E8">
-        <v>2076.8845207601</v>
+        <v>1240.876016302183</v>
       </c>
       <c r="F8">
-        <v>1144.859978648836</v>
+        <v>840.5873619302117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>93.90000000000001</v>
+        <v>126.8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>21777.79999457289</v>
       </c>
       <c r="C9">
-        <v>4996.144198597077</v>
+        <v>1431.717249613635</v>
       </c>
       <c r="D9">
-        <v>8147.603593557155</v>
+        <v>26710.84153439017</v>
       </c>
       <c r="E9">
-        <v>2016.8845207601</v>
+        <v>1315.071212223019</v>
       </c>
       <c r="F9">
-        <v>1184.859978648836</v>
+        <v>894.8676593218968</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>93.90000000000001</v>
+        <v>129.2</v>
       </c>
       <c r="B10">
-        <v>10840</v>
+        <v>15219.50446707782</v>
       </c>
       <c r="C10">
-        <v>6046.144198597077</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>8307.603593557156</v>
+        <v>27765.10801360411</v>
       </c>
       <c r="E10">
-        <v>1476.8845207601</v>
+        <v>908.7914597019703</v>
       </c>
       <c r="F10">
-        <v>1034.859978648836</v>
+        <v>880.2743507640257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>93.90000000000001</v>
+        <v>131.5</v>
       </c>
       <c r="B11">
-        <v>3400</v>
+        <v>21623.637919895</v>
       </c>
       <c r="C11">
-        <v>7036.144198597077</v>
+        <v>2470.854302453602</v>
       </c>
       <c r="D11">
-        <v>7167.603593557155</v>
+        <v>25589.61338951746</v>
       </c>
       <c r="E11">
-        <v>1556.8845207601</v>
+        <v>1008.606696869295</v>
       </c>
       <c r="F11">
-        <v>974.8599786488359</v>
+        <v>855.4557633960661</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>93.90000000000001</v>
+        <v>133.7</v>
       </c>
       <c r="B12">
-        <v>12580</v>
+        <v>16630.20035302453</v>
       </c>
       <c r="C12">
-        <v>6646.144198597077</v>
+        <v>924.2801569744297</v>
       </c>
       <c r="D12">
-        <v>8547.603593557156</v>
+        <v>24434.35766213023</v>
       </c>
       <c r="E12">
-        <v>2016.8845207601</v>
+        <v>1274.516923725</v>
       </c>
       <c r="F12">
-        <v>1104.859978648836</v>
+        <v>810.4118972180164</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>93.8</v>
+        <v>135.9</v>
       </c>
       <c r="B13">
-        <v>13983.92316082629</v>
+        <v>12506.76278615407</v>
       </c>
       <c r="C13">
-        <v>7371.24815714458</v>
+        <v>2357.706011495269</v>
       </c>
       <c r="D13">
-        <v>7933.818141823804</v>
+        <v>23839.10193474301</v>
       </c>
       <c r="E13">
-        <v>2353.769041520203</v>
+        <v>1390.427150580705</v>
       </c>
       <c r="F13">
-        <v>1334.729367036927</v>
+        <v>765.3680310399666</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>93.90000000000001</v>
+        <v>138.2</v>
       </c>
       <c r="B14">
-        <v>11960</v>
+        <v>10420.89623897124</v>
       </c>
       <c r="C14">
-        <v>7656.144198597077</v>
+        <v>1288.560313948858</v>
       </c>
       <c r="D14">
-        <v>9667.603593557156</v>
+        <v>23763.60731065639</v>
       </c>
       <c r="E14">
-        <v>1856.8845207601</v>
+        <v>1180.242387748033</v>
       </c>
       <c r="F14">
-        <v>844.8599786488359</v>
+        <v>900.5494436720071</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>93.90000000000001</v>
+        <v>140.4</v>
       </c>
       <c r="B15">
-        <v>4300</v>
+        <v>15257.45867210077</v>
       </c>
       <c r="C15">
-        <v>8586.144198597078</v>
+        <v>1981.986168469699</v>
       </c>
       <c r="D15">
-        <v>9057.603593557156</v>
+        <v>22868.35158326916</v>
       </c>
       <c r="E15">
-        <v>1396.8845207601</v>
+        <v>1106.152614603738</v>
       </c>
       <c r="F15">
-        <v>904.8599786488359</v>
+        <v>985.5055774939573</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>93.90000000000001</v>
+        <v>142.7</v>
       </c>
       <c r="B16">
-        <v>13300</v>
+        <v>15661.59212491795</v>
       </c>
       <c r="C16">
-        <v>8766.144198597078</v>
+        <v>2142.840470923287</v>
       </c>
       <c r="D16">
-        <v>13147.60359355716</v>
+        <v>22202.85695918253</v>
       </c>
       <c r="E16">
-        <v>2336.8845207601</v>
+        <v>865.9678517710661</v>
       </c>
       <c r="F16">
-        <v>1114.859978648836</v>
+        <v>810.6869901259978</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>94</v>
+        <v>145.4</v>
       </c>
       <c r="B17">
-        <v>19856.07683917371</v>
+        <v>15826.00965648604</v>
       </c>
       <c r="C17">
-        <v>9691.04024004958</v>
+        <v>1693.40856510795</v>
       </c>
       <c r="D17">
-        <v>22381.38904529051</v>
+        <v>16286.40674829821</v>
       </c>
       <c r="E17">
-        <v>2320</v>
+        <v>2251.403130184885</v>
       </c>
       <c r="F17">
-        <v>1024.990590260745</v>
+        <v>1286.769517998392</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>94.2</v>
+        <v>147.7</v>
       </c>
       <c r="B18">
-        <v>16148.23051752102</v>
+        <v>740.1431093032152</v>
       </c>
       <c r="C18">
-        <v>11240.83232295459</v>
+        <v>404.2628675615533</v>
       </c>
       <c r="D18">
-        <v>33448.9599487572</v>
+        <v>16340.91212421156</v>
       </c>
       <c r="E18">
-        <v>4486.230958479797</v>
+        <v>881.2183673522138</v>
       </c>
       <c r="F18">
-        <v>2035.25181348456</v>
+        <v>1151.950930630431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>94.8</v>
+        <v>150</v>
       </c>
       <c r="B19">
-        <v>30354.69155256293</v>
+        <v>11334.27656212039</v>
       </c>
       <c r="C19">
-        <v>19320.20857166961</v>
+        <v>1925.117170015155</v>
       </c>
       <c r="D19">
-        <v>42611.6726591573</v>
+        <v>15145.41750012492</v>
       </c>
       <c r="E19">
-        <v>3674.92383391919</v>
+        <v>1121.033604519538</v>
       </c>
       <c r="F19">
-        <v>2706.035483156014</v>
+        <v>1867.132343262471</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>95.7</v>
+        <v>152.3</v>
       </c>
       <c r="B20">
-        <v>51149.38310512586</v>
+        <v>14498.41001493769</v>
       </c>
       <c r="C20">
-        <v>21044.27294474215</v>
+        <v>2905.971472468743</v>
       </c>
       <c r="D20">
-        <v>46165.74172475746</v>
+        <v>12239.92287603827</v>
       </c>
       <c r="E20">
-        <v>3512.963147078272</v>
+        <v>1450.848841686866</v>
       </c>
       <c r="F20">
-        <v>1857.210987663192</v>
+        <v>2612.31375589451</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>97.09999999999999</v>
+        <v>154.5</v>
       </c>
       <c r="B21">
-        <v>48104.45885355701</v>
+        <v>14394.97244806722</v>
       </c>
       <c r="C21">
-        <v>14682.81752507721</v>
+        <v>3339.397326989584</v>
       </c>
       <c r="D21">
-        <v>60478.73804902436</v>
+        <v>13414.66714865105</v>
       </c>
       <c r="E21">
-        <v>5556.579856436854</v>
+        <v>1666.759068542571</v>
       </c>
       <c r="F21">
-        <v>1609.039550229916</v>
+        <v>3137.269889716462</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>98.90000000000001</v>
+        <v>157.2</v>
       </c>
       <c r="B22">
-        <v>56213.84195868288</v>
+        <v>10429.3899796352</v>
       </c>
       <c r="C22">
-        <v>14320.94627122228</v>
+        <v>3599.965421174234</v>
       </c>
       <c r="D22">
-        <v>79206.87618022464</v>
+        <v>11858.21693776674</v>
       </c>
       <c r="E22">
-        <v>6002.65848275503</v>
+        <v>1622.194346956391</v>
       </c>
       <c r="F22">
-        <v>1511.390559244272</v>
+        <v>4003.352417588856</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>101.3</v>
+        <v>159.1</v>
       </c>
       <c r="B23">
-        <v>64749.68609885067</v>
+        <v>10503.23935370157</v>
       </c>
       <c r="C23">
-        <v>14198.45126608238</v>
+        <v>4731.105931896775</v>
       </c>
       <c r="D23">
-        <v>88087.72702182505</v>
+        <v>10993.67790047777</v>
       </c>
       <c r="E23">
-        <v>5967.429984512594</v>
+        <v>1596.389542877224</v>
       </c>
       <c r="F23">
-        <v>1444.525237930082</v>
+        <v>3377.632714980541</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>104.5</v>
+        <v>161.7</v>
       </c>
       <c r="B24">
-        <v>73474.14495240767</v>
+        <v>13240.0858655819</v>
       </c>
       <c r="C24">
-        <v>12515.12459256251</v>
+        <v>3674.245578148678</v>
       </c>
       <c r="D24">
-        <v>94578.86147729227</v>
+        <v>8227.46658629286</v>
       </c>
       <c r="E24">
-        <v>5877.125320189345</v>
+        <v>2227.919810979421</v>
       </c>
       <c r="F24">
-        <v>1318.704809511162</v>
+        <v>2133.489964042847</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>107.4</v>
+        <v>164</v>
       </c>
       <c r="B25">
-        <v>75140.37328844379</v>
+        <v>7374.219318399199</v>
       </c>
       <c r="C25">
-        <v>14097.10979468513</v>
+        <v>3585.099880602265</v>
       </c>
       <c r="D25">
-        <v>95118.63957755941</v>
+        <v>7391.971962206233</v>
       </c>
       <c r="E25">
-        <v>5687.474218146406</v>
+        <v>1367.735048146749</v>
       </c>
       <c r="F25">
-        <v>1142.492546256516</v>
+        <v>2018.671376674885</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>110.2</v>
+        <v>166.2</v>
       </c>
       <c r="B26">
-        <v>73750.52478530619</v>
+        <v>1590.781751528615</v>
       </c>
       <c r="C26">
-        <v>13804.19895535524</v>
+        <v>3808.525735123107</v>
       </c>
       <c r="D26">
-        <v>89234.63222609321</v>
+        <v>5576.71623481901</v>
       </c>
       <c r="E26">
-        <v>4744.707636863563</v>
+        <v>1733.645275002454</v>
       </c>
       <c r="F26">
-        <v>1156.14967138996</v>
+        <v>1373.627510496837</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>113</v>
+        <v>168.8</v>
       </c>
       <c r="B27">
-        <v>71060.6762821687</v>
+        <v>5177.628263408951</v>
       </c>
       <c r="C27">
-        <v>14041.28811602535</v>
+        <v>2991.665381374993</v>
       </c>
       <c r="D27">
-        <v>84170.62487462701</v>
+        <v>5720.504920634099</v>
       </c>
       <c r="E27">
-        <v>4001.941055580725</v>
+        <v>1555.17554310465</v>
       </c>
       <c r="F27">
-        <v>809.8067965234046</v>
+        <v>1309.484759559143</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>115.6</v>
+        <v>170.8</v>
       </c>
       <c r="B28">
-        <v>71158.6741006838</v>
+        <v>7019.048657163083</v>
       </c>
       <c r="C28">
-        <v>13088.58519379047</v>
+        <v>4440.234340030282</v>
       </c>
       <c r="D28">
-        <v>76769.04661969411</v>
+        <v>3885.726986645728</v>
       </c>
       <c r="E28">
-        <v>4102.943515818087</v>
+        <v>923.2757493371096</v>
       </c>
       <c r="F28">
-        <v>1073.202698433031</v>
+        <v>1433.990335760916</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>118.3</v>
+        <v>173.3</v>
       </c>
       <c r="B29">
-        <v>66862.74875837249</v>
+        <v>428.3241493557725</v>
       </c>
       <c r="C29">
-        <v>11590.77831300807</v>
+        <v>4195.945538349422</v>
       </c>
       <c r="D29">
-        <v>72121.25381649456</v>
+        <v>4579.754569160235</v>
       </c>
       <c r="E29">
-        <v>3077.061455295348</v>
+        <v>1630.901007127683</v>
       </c>
       <c r="F29">
-        <v>866.7292119545689</v>
+        <v>1629.622306013133</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>120.6</v>
+        <v>175.6</v>
       </c>
       <c r="B30">
-        <v>60012.51605936668</v>
+        <v>9802.457602172952</v>
       </c>
       <c r="C30">
-        <v>11713.38726641567</v>
+        <v>3976.799840803011</v>
       </c>
       <c r="D30">
-        <v>66348.31920636162</v>
+        <v>3484.259945073594</v>
       </c>
       <c r="E30">
-        <v>3428.717477813017</v>
+        <v>1370.716244295012</v>
       </c>
       <c r="F30">
-        <v>899.733279028469</v>
+        <v>1314.803718645172</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>122.8</v>
+        <v>177.8</v>
       </c>
       <c r="B31">
-        <v>54916.20652118715</v>
+        <v>5819.020035302485</v>
       </c>
       <c r="C31">
-        <v>11021.10017837076</v>
+        <v>3420.22569532385</v>
       </c>
       <c r="D31">
-        <v>63121.59914449531</v>
+        <v>3649.004217686372</v>
       </c>
       <c r="E31">
-        <v>3307.258021090781</v>
+        <v>1466.626471150713</v>
       </c>
       <c r="F31">
-        <v>1292.606734490462</v>
+        <v>989.7598524671224</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>124.9</v>
+        <v>180.1</v>
       </c>
       <c r="B32">
-        <v>47143.82014383393</v>
+        <v>2413.153488119657</v>
       </c>
       <c r="C32">
-        <v>11023.91704887334</v>
+        <v>5181.079997777455</v>
       </c>
       <c r="D32">
-        <v>59291.09363089564</v>
+        <v>2613.509593599723</v>
       </c>
       <c r="E32">
-        <v>3082.683085128652</v>
+        <v>1756.441708318041</v>
       </c>
       <c r="F32">
-        <v>1235.349578340545</v>
+        <v>1474.941265099163</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>126.8</v>
+        <v>182.7</v>
       </c>
       <c r="B33">
-        <v>43939.2800881334</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>12026.94183647092</v>
+        <v>4774.219644029341</v>
       </c>
       <c r="D33">
-        <v>56613.01721382929</v>
+        <v>947.2982794148265</v>
       </c>
       <c r="E33">
-        <v>3141.877190686724</v>
+        <v>1777.971976420238</v>
       </c>
       <c r="F33">
-        <v>1287.831198966811</v>
+        <v>1600.798514161469</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>129.2</v>
+        <v>185</v>
       </c>
       <c r="B34">
-        <v>37105.12422830119</v>
+        <v>10994.13345281717</v>
       </c>
       <c r="C34">
-        <v>10534.44683133102</v>
+        <v>7015.073946482944</v>
       </c>
       <c r="D34">
-        <v>57283.8680554297</v>
+        <v>4781.803655328193</v>
       </c>
       <c r="E34">
-        <v>2716.648692444289</v>
+        <v>1157.787213587562</v>
       </c>
       <c r="F34">
-        <v>1270.965877652622</v>
+        <v>1675.979926793507</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>131.5</v>
+        <v>187.2</v>
       </c>
       <c r="B35">
-        <v>43244.89152929538</v>
+        <v>14130.6958859467</v>
       </c>
       <c r="C35">
-        <v>12947.05578473861</v>
+        <v>5138.499801003771</v>
       </c>
       <c r="D35">
-        <v>54740.93344529675</v>
+        <v>3556.547927940963</v>
       </c>
       <c r="E35">
-        <v>2798.304714961957</v>
+        <v>1393.697440443267</v>
       </c>
       <c r="F35">
-        <v>1243.969944726522</v>
+        <v>1380.936060615459</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>133.7</v>
+        <v>189.5</v>
       </c>
       <c r="B36">
-        <v>37998.58199111586</v>
+        <v>13514.829338764</v>
       </c>
       <c r="C36">
-        <v>11344.7686966937</v>
+        <v>6969.354103457374</v>
       </c>
       <c r="D36">
-        <v>53234.21338343045</v>
+        <v>2531.053303854322</v>
       </c>
       <c r="E36">
-        <v>3046.845258239726</v>
+        <v>1413.512677610595</v>
       </c>
       <c r="F36">
-        <v>1196.843400188515</v>
+        <v>1406.117473247498</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>135.9</v>
+        <v>191.8</v>
       </c>
       <c r="B37">
-        <v>33622.27245293634</v>
+        <v>9428.962791581172</v>
       </c>
       <c r="C37">
-        <v>12722.48160864878</v>
+        <v>6900.20840591096</v>
       </c>
       <c r="D37">
-        <v>52287.49332156414</v>
+        <v>1725.558679767681</v>
       </c>
       <c r="E37">
-        <v>3145.385801517494</v>
+        <v>1083.327914777923</v>
       </c>
       <c r="F37">
-        <v>1149.716855650507</v>
+        <v>1701.298885879538</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>138.2</v>
+        <v>194.1</v>
       </c>
       <c r="B38">
-        <v>31272.03975393042</v>
+        <v>18123.09624439834</v>
       </c>
       <c r="C38">
-        <v>11595.09056205639</v>
+        <v>9381.062708364563</v>
       </c>
       <c r="D38">
-        <v>51844.55871143121</v>
+        <v>1200.064055681039</v>
       </c>
       <c r="E38">
-        <v>2917.041824035163</v>
+        <v>1273.143151945251</v>
       </c>
       <c r="F38">
-        <v>1282.720922724408</v>
+        <v>1566.480298511577</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>140.4</v>
+        <v>196.7</v>
       </c>
       <c r="B39">
-        <v>35855.7302157509</v>
+        <v>17019.94275627868</v>
       </c>
       <c r="C39">
-        <v>12232.80347401147</v>
+        <v>7894.202354616466</v>
       </c>
       <c r="D39">
-        <v>50597.8386495649</v>
+        <v>1983.852741496143</v>
       </c>
       <c r="E39">
-        <v>2825.582367312927</v>
+        <v>1814.673420047448</v>
       </c>
       <c r="F39">
-        <v>1365.5943781864</v>
+        <v>1682.337547573883</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>142.7</v>
+        <v>199</v>
       </c>
       <c r="B40">
-        <v>35995.49751674509</v>
+        <v>16894.07620909598</v>
       </c>
       <c r="C40">
-        <v>12335.41242741906</v>
+        <v>8665.056657070054</v>
       </c>
       <c r="D40">
-        <v>49564.90403943195</v>
+        <v>1088.358117409502</v>
       </c>
       <c r="E40">
-        <v>2567.238389830595</v>
+        <v>1234.488657214776</v>
       </c>
       <c r="F40">
-        <v>1188.598445260302</v>
+        <v>1537.518960205923</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>145.4</v>
+        <v>201.3</v>
       </c>
       <c r="B41">
-        <v>35849.57217443378</v>
+        <v>28988.20966191315</v>
       </c>
       <c r="C41">
-        <v>11817.60554663667</v>
+        <v>8445.91095952364</v>
       </c>
       <c r="D41">
-        <v>43217.1112362324</v>
+        <v>1002.86349332286</v>
       </c>
       <c r="E41">
-        <v>3931.356329307857</v>
+        <v>1984.303894382104</v>
       </c>
       <c r="F41">
-        <v>1662.124958781837</v>
+        <v>1832.700372837962</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>147.7</v>
+        <v>203.9</v>
       </c>
       <c r="B42">
-        <v>20499.33947542798</v>
+        <v>32575.05617379349</v>
       </c>
       <c r="C42">
-        <v>10470.21450004428</v>
+        <v>8609.050605775543</v>
       </c>
       <c r="D42">
-        <v>42904.17662609945</v>
+        <v>1206.652179137964</v>
       </c>
       <c r="E42">
-        <v>2543.012351825525</v>
+        <v>1325.834162484297</v>
       </c>
       <c r="F42">
-        <v>1525.129025855739</v>
+        <v>1488.557621900267</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>150</v>
+        <v>206.1</v>
       </c>
       <c r="B43">
-        <v>30829.10677642205</v>
+        <v>36591.61860692302</v>
       </c>
       <c r="C43">
-        <v>11932.82345345187</v>
+        <v>6992.47646029637</v>
       </c>
       <c r="D43">
-        <v>41341.24201596651</v>
+        <v>1591.396451750741</v>
       </c>
       <c r="E43">
-        <v>2764.668374343189</v>
+        <v>1831.744389340002</v>
       </c>
       <c r="F43">
-        <v>2238.13309292964</v>
+        <v>1793.51375572222</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>152.3</v>
+        <v>208.4</v>
       </c>
       <c r="B44">
-        <v>33728.87407741624</v>
+        <v>47465.75205974019</v>
       </c>
       <c r="C44">
-        <v>12855.43240685946</v>
+        <v>8753.330762749973</v>
       </c>
       <c r="D44">
-        <v>38068.30740583354</v>
+        <v>1285.9018276641</v>
       </c>
       <c r="E44">
-        <v>3076.324396860854</v>
+        <v>1411.55962650733</v>
       </c>
       <c r="F44">
-        <v>2981.137160003542</v>
+        <v>2088.695168354258</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>154.5</v>
+        <v>210.7</v>
       </c>
       <c r="B45">
-        <v>33372.56453923673</v>
+        <v>54169.88551255749</v>
       </c>
       <c r="C45">
-        <v>13233.14531881454</v>
+        <v>10584.18506520358</v>
       </c>
       <c r="D45">
-        <v>38891.58734396725</v>
+        <v>720.4072035774589</v>
       </c>
       <c r="E45">
-        <v>3274.864940138626</v>
+        <v>1441.374863674659</v>
       </c>
       <c r="F45">
-        <v>3504.010615465533</v>
+        <v>1653.876580986299</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>157.2</v>
+        <v>213</v>
       </c>
       <c r="B46">
-        <v>29096.63919692541</v>
+        <v>63234.01896537466</v>
       </c>
       <c r="C46">
-        <v>13425.33843803217</v>
+        <v>9695.039367657162</v>
       </c>
       <c r="D46">
-        <v>36903.7945407677</v>
+        <v>1244.912579490818</v>
       </c>
       <c r="E46">
-        <v>3208.982879615888</v>
+        <v>1281.190100841983</v>
       </c>
       <c r="F46">
-        <v>4367.537128987068</v>
+        <v>1809.057993618337</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>159.1</v>
+        <v>215.3</v>
       </c>
       <c r="B47">
-        <v>28952.09914122488</v>
+        <v>77098.15241819184</v>
       </c>
       <c r="C47">
-        <v>14508.36322562974</v>
+        <v>10175.89367011077</v>
       </c>
       <c r="D47">
-        <v>35735.71812370135</v>
+        <v>1729.417955404177</v>
       </c>
       <c r="E47">
-        <v>3168.17698517396</v>
+        <v>1101.005338009311</v>
       </c>
       <c r="F47">
-        <v>3740.018749613335</v>
+        <v>1764.239406250378</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>161.7</v>
+        <v>217.5</v>
       </c>
       <c r="B48">
-        <v>31390.09695974009</v>
+        <v>93034.71485132136</v>
       </c>
       <c r="C48">
-        <v>13385.66030339484</v>
+        <v>9619.319524631592</v>
       </c>
       <c r="D48">
-        <v>32554.13986876846</v>
+        <v>1684.162228016954</v>
       </c>
       <c r="E48">
-        <v>3779.179445411321</v>
+        <v>1656.915564865016</v>
       </c>
       <c r="F48">
-        <v>2493.414651522962</v>
+        <v>1969.195540072328</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>164</v>
+        <v>220.1</v>
       </c>
       <c r="B49">
-        <v>25259.86426073416</v>
+        <v>118641.5613632017</v>
       </c>
       <c r="C49">
-        <v>13238.26925680243</v>
+        <v>10402.45917088349</v>
       </c>
       <c r="D49">
-        <v>31351.20525863551</v>
+        <v>2037.950913832057</v>
       </c>
       <c r="E49">
-        <v>2900.835467928989</v>
+        <v>1688.445832967213</v>
       </c>
       <c r="F49">
-        <v>2376.418718596864</v>
+        <v>2105.052789134634</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>166.2</v>
+        <v>222.4</v>
       </c>
       <c r="B50">
-        <v>19223.55472255465</v>
+        <v>146885.694816019</v>
       </c>
       <c r="C50">
-        <v>13405.98216875752</v>
+        <v>9793.313473337095</v>
       </c>
       <c r="D50">
-        <v>29184.4851967692</v>
+        <v>1192.456289745416</v>
       </c>
       <c r="E50">
-        <v>3249.376011206758</v>
+        <v>2178.261070134541</v>
       </c>
       <c r="F50">
-        <v>1729.292174058855</v>
+        <v>1870.234201766674</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>168.8</v>
+        <v>224.7</v>
       </c>
       <c r="B51">
-        <v>22511.55254106974</v>
+        <v>171419.8282688362</v>
       </c>
       <c r="C51">
-        <v>12523.27924652264</v>
+        <v>10624.16777579069</v>
       </c>
       <c r="D51">
-        <v>28912.9069418363</v>
+        <v>1026.961665658775</v>
       </c>
       <c r="E51">
-        <v>3050.378471444118</v>
+        <v>1178.076307301869</v>
       </c>
       <c r="F51">
-        <v>1662.688075968484</v>
+        <v>1995.415614398713</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>170.8</v>
+        <v>226.9</v>
       </c>
       <c r="B52">
-        <v>24123.08932454292</v>
+        <v>195066.3907019657</v>
       </c>
       <c r="C52">
-        <v>13921.20007557271</v>
+        <v>11037.59363031152</v>
       </c>
       <c r="D52">
-        <v>26758.6159765033</v>
+        <v>1831.705938271552</v>
       </c>
       <c r="E52">
-        <v>2402.68805624209</v>
+        <v>2493.986534157574</v>
       </c>
       <c r="F52">
-        <v>1785.300308206657</v>
+        <v>1980.371748220665</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>173.3</v>
+        <v>229.5</v>
       </c>
       <c r="B53">
-        <v>17245.0103038843</v>
+        <v>233933.237213846</v>
       </c>
       <c r="C53">
-        <v>13613.60111188531</v>
+        <v>12310.73327656341</v>
       </c>
       <c r="D53">
-        <v>27053.25226983705</v>
+        <v>965.4946240866557</v>
       </c>
       <c r="E53">
-        <v>3090.575037239551</v>
+        <v>1525.516802259771</v>
       </c>
       <c r="F53">
-        <v>1978.565598504377</v>
+        <v>2576.22899728297</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>175.6</v>
+        <v>231.8</v>
       </c>
       <c r="B54">
-        <v>26354.77760487849</v>
+        <v>253087.3706666632</v>
       </c>
       <c r="C54">
-        <v>13336.21006529292</v>
+        <v>11351.58757901701</v>
       </c>
       <c r="D54">
-        <v>25590.3176597041</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>2812.23105975722</v>
+        <v>1945.332039427095</v>
       </c>
       <c r="F54">
-        <v>1661.569665578277</v>
+        <v>1431.410409915009</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>177.8</v>
+        <v>234.1</v>
       </c>
       <c r="B55">
-        <v>22118.46806669897</v>
+        <v>293151.5041194804</v>
       </c>
       <c r="C55">
-        <v>12723.92297724799</v>
+        <v>11822.44188147062</v>
       </c>
       <c r="D55">
-        <v>25403.59759783779</v>
+        <v>3484.505375913373</v>
       </c>
       <c r="E55">
-        <v>2890.771603034988</v>
+        <v>1625.147276594423</v>
       </c>
       <c r="F55">
-        <v>1334.44312104027</v>
+        <v>1876.59182254705</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>180.1</v>
+        <v>236.4</v>
       </c>
       <c r="B56">
-        <v>18448.23536769305</v>
+        <v>339215.6375722977</v>
       </c>
       <c r="C56">
-        <v>14426.53193065559</v>
+        <v>12413.29618392421</v>
       </c>
       <c r="D56">
-        <v>24000.66298770486</v>
+        <v>2389.010751826718</v>
       </c>
       <c r="E56">
-        <v>3162.427625552657</v>
+        <v>1524.962513761751</v>
       </c>
       <c r="F56">
-        <v>1817.44718811417</v>
+        <v>1831.773235179088</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>182.7</v>
+        <v>238.6</v>
       </c>
       <c r="B57">
-        <v>15736.23318620814</v>
+        <v>364172.2000054272</v>
       </c>
       <c r="C57">
-        <v>13953.8290084207</v>
+        <v>12866.72203844505</v>
       </c>
       <c r="D57">
-        <v>21919.08473277196</v>
+        <v>773.7550244395097</v>
       </c>
       <c r="E57">
-        <v>3163.430085790018</v>
+        <v>1790.872740617456</v>
       </c>
       <c r="F57">
-        <v>1940.843090023799</v>
+        <v>1776.72936900104</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>185</v>
+        <v>241.2</v>
       </c>
       <c r="B58">
-        <v>26466.00048720234</v>
+        <v>409409.0465173075</v>
       </c>
       <c r="C58">
-        <v>16136.43796182829</v>
+        <v>14209.86168469693</v>
       </c>
       <c r="D58">
-        <v>25386.150122639</v>
+        <v>1177.543710254598</v>
       </c>
       <c r="E58">
-        <v>2525.086108307686</v>
+        <v>1722.40300871965</v>
       </c>
       <c r="F58">
-        <v>2013.847157097699</v>
+        <v>1532.586618063346</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>187.2</v>
+        <v>243.5</v>
       </c>
       <c r="B59">
-        <v>29349.69094902282</v>
+        <v>449313.1799701247</v>
       </c>
       <c r="C59">
-        <v>14204.15087378339</v>
+        <v>12810.71598715052</v>
       </c>
       <c r="D59">
-        <v>23809.43006077271</v>
+        <v>2022.049086167957</v>
       </c>
       <c r="E59">
-        <v>2743.626651585451</v>
+        <v>1472.218245886978</v>
       </c>
       <c r="F59">
-        <v>1716.720612559692</v>
+        <v>1837.768030695385</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>189.5</v>
+        <v>245.8</v>
       </c>
       <c r="B60">
-        <v>28469.45825001689</v>
+        <v>486527.3134229419</v>
       </c>
       <c r="C60">
-        <v>15976.75982719096</v>
+        <v>12681.57028960412</v>
       </c>
       <c r="D60">
-        <v>22416.49545063976</v>
+        <v>1986.554462081316</v>
       </c>
       <c r="E60">
-        <v>2745.282674103119</v>
+        <v>1142.033483054306</v>
       </c>
       <c r="F60">
-        <v>1739.724679633592</v>
+        <v>1602.949443327425</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>191.8</v>
+        <v>247.5</v>
       </c>
       <c r="B61">
-        <v>24119.22555101109</v>
+        <v>521446.0207576329</v>
       </c>
       <c r="C61">
-        <v>15849.36878059857</v>
+        <v>13547.85390446113</v>
       </c>
       <c r="D61">
-        <v>21243.5608405068</v>
+        <v>2762.493218191194</v>
       </c>
       <c r="E61">
-        <v>2396.938696620788</v>
+        <v>2558.418658351896</v>
       </c>
       <c r="F61">
-        <v>2032.728746707494</v>
+        <v>1356.779183098931</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>194.1</v>
+        <v>250.4</v>
       </c>
       <c r="B62">
-        <v>32548.99285200516</v>
+        <v>577945.5803285764</v>
       </c>
       <c r="C62">
-        <v>18271.97773400617</v>
+        <v>12873.27889451132</v>
       </c>
       <c r="D62">
-        <v>20350.62623037385</v>
+        <v>1855.565213908034</v>
       </c>
       <c r="E62">
-        <v>2568.594719138456</v>
+        <v>1391.663957388962</v>
       </c>
       <c r="F62">
-        <v>1895.732813781394</v>
+        <v>1383.312268591504</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>196.7</v>
+        <v>252.6</v>
       </c>
       <c r="B63">
-        <v>31146.99067052026</v>
+        <v>626182.1427617059</v>
       </c>
       <c r="C63">
-        <v>16719.27481177126</v>
+        <v>13776.70474903216</v>
       </c>
       <c r="D63">
-        <v>20719.04797544096</v>
+        <v>3080.309486520804</v>
       </c>
       <c r="E63">
-        <v>3089.597179375817</v>
+        <v>2207.574184244667</v>
       </c>
       <c r="F63">
-        <v>2009.128715691021</v>
+        <v>1658.268402413455</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>199</v>
+        <v>254.9</v>
       </c>
       <c r="B64">
-        <v>30756.75797151445</v>
+        <v>656716.2762145231</v>
       </c>
       <c r="C64">
-        <v>17431.88376517887</v>
+        <v>12817.55905148574</v>
       </c>
       <c r="D64">
-        <v>19456.113365308</v>
+        <v>2034.814862434177</v>
       </c>
       <c r="E64">
-        <v>2491.253201893482</v>
+        <v>927.3894214119946</v>
       </c>
       <c r="F64">
-        <v>1862.132782764923</v>
+        <v>1403.449815045495</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>201.3</v>
+        <v>257.5</v>
       </c>
       <c r="B65">
-        <v>42586.52527250853</v>
+        <v>700243.1227264035</v>
       </c>
       <c r="C65">
-        <v>17154.49271858644</v>
+        <v>11950.69869773765</v>
       </c>
       <c r="D65">
-        <v>19003.17875517505</v>
+        <v>1258.603548249273</v>
       </c>
       <c r="E65">
-        <v>3222.90922441115</v>
+        <v>1718.919689514192</v>
       </c>
       <c r="F65">
-        <v>2155.136849838825</v>
+        <v>1289.307064107801</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>203.9</v>
+        <v>259.8</v>
       </c>
       <c r="B66">
-        <v>45874.52309102362</v>
+        <v>709377.2561792205</v>
       </c>
       <c r="C66">
-        <v>17251.78979635156</v>
+        <v>11471.55300019125</v>
       </c>
       <c r="D66">
-        <v>18791.60050024216</v>
+        <v>2103.108924162632</v>
       </c>
       <c r="E66">
-        <v>2543.911684648511</v>
+        <v>1548.734926681516</v>
       </c>
       <c r="F66">
-        <v>1808.532751748452</v>
+        <v>1554.488476739839</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>206.1</v>
+        <v>262.1</v>
       </c>
       <c r="B67">
-        <v>49638.2135528441</v>
+        <v>753981.3896320378</v>
       </c>
       <c r="C67">
-        <v>15579.50270830665</v>
+        <v>12092.40730264483</v>
       </c>
       <c r="D67">
-        <v>18824.88043837585</v>
+        <v>1937.614300075991</v>
       </c>
       <c r="E67">
-        <v>3032.452227926279</v>
+        <v>1148.55016384884</v>
       </c>
       <c r="F67">
-        <v>2111.406207210443</v>
+        <v>1169.669889371879</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>208.4</v>
+        <v>264.4</v>
       </c>
       <c r="B68">
-        <v>60247.98085383829</v>
+        <v>749205.5230848552</v>
       </c>
       <c r="C68">
-        <v>17282.11166171424</v>
+        <v>11503.26160509845</v>
       </c>
       <c r="D68">
-        <v>18151.9458282429</v>
+        <v>1582.119675989343</v>
       </c>
       <c r="E68">
-        <v>2594.108250443948</v>
+        <v>1298.365401016172</v>
       </c>
       <c r="F68">
-        <v>2404.410274284345</v>
+        <v>1334.851302003918</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>210.7</v>
+        <v>266.7</v>
       </c>
       <c r="B69">
-        <v>66687.74815483237</v>
+        <v>747789.6565376722</v>
       </c>
       <c r="C69">
-        <v>19054.72061512185</v>
+        <v>12154.11590755204</v>
       </c>
       <c r="D69">
-        <v>17219.01121810995</v>
+        <v>3446.625051902702</v>
       </c>
       <c r="E69">
-        <v>2605.764272961616</v>
+        <v>1188.1806381835</v>
       </c>
       <c r="F69">
-        <v>1967.414341358246</v>
+        <v>940.0327146359588</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>213</v>
+        <v>268.9</v>
       </c>
       <c r="B70">
-        <v>75487.51545582656</v>
+        <v>770336.2189708017</v>
       </c>
       <c r="C70">
-        <v>18107.32956852943</v>
+        <v>10037.54176207288</v>
       </c>
       <c r="D70">
-        <v>17376.07660797701</v>
+        <v>331.3693245154864</v>
       </c>
       <c r="E70">
-        <v>2427.420295479281</v>
+        <v>1164.090865039205</v>
       </c>
       <c r="F70">
-        <v>2120.418408432147</v>
+        <v>894.9888484579091</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>215.3</v>
+        <v>271.5</v>
       </c>
       <c r="B71">
-        <v>89087.28275682064</v>
+        <v>748893.0654826821</v>
       </c>
       <c r="C71">
-        <v>18529.93852193702</v>
+        <v>10220.68140832477</v>
       </c>
       <c r="D71">
-        <v>17493.14199784405</v>
+        <v>2575.158010330582</v>
       </c>
       <c r="E71">
-        <v>2229.076317996945</v>
+        <v>1235.621133141398</v>
       </c>
       <c r="F71">
-        <v>2073.422475506048</v>
+        <v>870.8460975202147</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>217.5</v>
+        <v>273.8</v>
       </c>
       <c r="B72">
-        <v>104770.9732186411</v>
+        <v>721687.1989354994</v>
       </c>
       <c r="C72">
-        <v>17917.65143389212</v>
+        <v>11561.53571077836</v>
       </c>
       <c r="D72">
-        <v>17096.42193597776</v>
+        <v>3279.663386243941</v>
       </c>
       <c r="E72">
-        <v>2767.616861274718</v>
+        <v>1985.436370308726</v>
       </c>
       <c r="F72">
-        <v>2276.29593096804</v>
+        <v>806.0275101522551</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>220.1</v>
+        <v>276.1</v>
       </c>
       <c r="B73">
-        <v>130078.9710371562</v>
+        <v>671271.3323883166</v>
       </c>
       <c r="C73">
-        <v>18634.94851165721</v>
+        <v>11752.39001323194</v>
       </c>
       <c r="D73">
-        <v>17034.84368104485</v>
+        <v>2354.1687621573</v>
       </c>
       <c r="E73">
-        <v>2778.619321512079</v>
+        <v>1175.251607476054</v>
       </c>
       <c r="F73">
-        <v>2409.691832877667</v>
+        <v>951.2089227842938</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>222.4</v>
+        <v>278.4</v>
       </c>
       <c r="B74">
-        <v>158058.7383381504</v>
+        <v>596985.4658411337</v>
       </c>
       <c r="C74">
-        <v>17967.55746506482</v>
+        <v>12973.24431568556</v>
       </c>
       <c r="D74">
-        <v>15821.90907091191</v>
+        <v>3268.674138070652</v>
       </c>
       <c r="E74">
-        <v>3250.275344029744</v>
+        <v>1445.066844643382</v>
       </c>
       <c r="F74">
-        <v>2172.695899951569</v>
+        <v>666.3903354163325</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>224.7</v>
+        <v>280.6</v>
       </c>
       <c r="B75">
-        <v>182328.5056391445</v>
+        <v>552822.0282742633</v>
       </c>
       <c r="C75">
-        <v>18740.16641847241</v>
+        <v>11876.67017020639</v>
       </c>
       <c r="D75">
-        <v>15288.97446077896</v>
+        <v>2953.418410683436</v>
       </c>
       <c r="E75">
-        <v>2231.931366547412</v>
+        <v>1140.977071499087</v>
       </c>
       <c r="F75">
-        <v>2295.69996702547</v>
+        <v>551.3464692382845</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>226.9</v>
+        <v>283</v>
       </c>
       <c r="B76">
-        <v>205722.196100965</v>
+        <v>484323.7327467682</v>
       </c>
       <c r="C76">
-        <v>19097.8793304275</v>
+        <v>10554.95292059275</v>
       </c>
       <c r="D76">
-        <v>15742.25439891265</v>
+        <v>1947.684889897369</v>
       </c>
       <c r="E76">
-        <v>3530.471909825176</v>
+        <v>894.6973189780383</v>
       </c>
       <c r="F76">
-        <v>2278.573422487463</v>
+        <v>326.7531606804134</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>229.5</v>
+        <v>285.6</v>
       </c>
       <c r="B77">
-        <v>244290.1939194801</v>
+        <v>429500.5792586485</v>
       </c>
       <c r="C77">
-        <v>20305.17640819261</v>
+        <v>12288.09256684464</v>
       </c>
       <c r="D77">
-        <v>14460.67614397974</v>
+        <v>5061.47357571248</v>
       </c>
       <c r="E77">
-        <v>2541.474370062541</v>
+        <v>1106.227587080231</v>
       </c>
       <c r="F77">
-        <v>2871.96932439709</v>
+        <v>1082.610409742719</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>231.8</v>
+        <v>287.9</v>
       </c>
       <c r="B78">
-        <v>263179.9612204743</v>
+        <v>389974.7127114658</v>
       </c>
       <c r="C78">
-        <v>19287.78536160019</v>
+        <v>13008.94686929824</v>
       </c>
       <c r="D78">
-        <v>13127.74153384681</v>
+        <v>3575.978951625832</v>
       </c>
       <c r="E78">
-        <v>2943.130392580209</v>
+        <v>1556.042824247564</v>
       </c>
       <c r="F78">
-        <v>1724.973391470991</v>
+        <v>727.7918223747578</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>234.1</v>
+        <v>290.2</v>
       </c>
       <c r="B79">
-        <v>302979.7285214683</v>
+        <v>354668.846164283</v>
       </c>
       <c r="C79">
-        <v>19700.39431500779</v>
+        <v>13909.80117175185</v>
       </c>
       <c r="D79">
-        <v>16244.80692371386</v>
+        <v>2640.48432753919</v>
       </c>
       <c r="E79">
-        <v>2604.786415097878</v>
+        <v>1295.858061414888</v>
       </c>
       <c r="F79">
-        <v>2167.977458544892</v>
+        <v>422.9732350067982</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>236.4</v>
+        <v>292.4</v>
       </c>
       <c r="B80">
-        <v>348779.4958224625</v>
+        <v>326975.4085974125</v>
       </c>
       <c r="C80">
-        <v>20233.00326841538</v>
+        <v>12893.22702627267</v>
       </c>
       <c r="D80">
-        <v>14781.8723135809</v>
+        <v>2985.228600151968</v>
       </c>
       <c r="E80">
-        <v>2486.442437615543</v>
+        <v>1261.768288270593</v>
       </c>
       <c r="F80">
-        <v>2120.981525618794</v>
+        <v>1037.929368828748</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>238.6</v>
+        <v>295</v>
       </c>
       <c r="B81">
-        <v>373483.1862842828</v>
+        <v>303182.2551092929</v>
       </c>
       <c r="C81">
-        <v>20630.71618037047</v>
+        <v>14236.36667252456</v>
       </c>
       <c r="D81">
-        <v>12815.1522517146</v>
+        <v>2849.017285967071</v>
       </c>
       <c r="E81">
-        <v>2734.982980893311</v>
+        <v>323.2985563727862</v>
       </c>
       <c r="F81">
-        <v>2063.854981080785</v>
+        <v>243.7866178910541</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>241.2</v>
+        <v>297.3</v>
       </c>
       <c r="B82">
-        <v>418421.1841027981</v>
+        <v>271576.38856211</v>
       </c>
       <c r="C82">
-        <v>21908.01325813559</v>
+        <v>18797.22097497816</v>
       </c>
       <c r="D82">
-        <v>12803.5739967817</v>
+        <v>4083.522661880415</v>
       </c>
       <c r="E82">
-        <v>2645.985441130676</v>
+        <v>83.11379354011387</v>
       </c>
       <c r="F82">
-        <v>1817.250882990412</v>
+        <v>348.9680305230945</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>243.5</v>
+        <v>299.6</v>
       </c>
       <c r="B83">
-        <v>458060.9514037921</v>
+        <v>252070.5220149274</v>
       </c>
       <c r="C83">
-        <v>20450.62221154316</v>
+        <v>19798.07527743177</v>
       </c>
       <c r="D83">
-        <v>13280.63938664875</v>
+        <v>5108.028037793789</v>
       </c>
       <c r="E83">
-        <v>2377.641463648337</v>
+        <v>302.9290307074421</v>
       </c>
       <c r="F83">
-        <v>2120.254950064314</v>
+        <v>644.1494431551331</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>245.8</v>
+        <v>301.8</v>
       </c>
       <c r="B84">
-        <v>495010.7187047862</v>
+        <v>249747.0844480568</v>
       </c>
       <c r="C84">
-        <v>20263.23116495077</v>
+        <v>23051.50113195259</v>
       </c>
       <c r="D84">
-        <v>12877.7047765158</v>
+        <v>5782.772310406566</v>
       </c>
       <c r="E84">
-        <v>2029.297486166005</v>
+        <v>678.8392575631469</v>
       </c>
       <c r="F84">
-        <v>1883.259017138215</v>
+        <v>499.1055769770834</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>247.5</v>
+        <v>304.1</v>
       </c>
       <c r="B85">
-        <v>529734.0249707386</v>
+        <v>229491.217900874</v>
       </c>
       <c r="C85">
-        <v>21086.46386964335</v>
+        <v>26042.35543440619</v>
       </c>
       <c r="D85">
-        <v>13382.05745598275</v>
+        <v>4607.277686319911</v>
       </c>
       <c r="E85">
-        <v>3432.260633244281</v>
+        <v>728.6544947304751</v>
       </c>
       <c r="F85">
-        <v>1635.479414540663</v>
+        <v>564.2869896091238</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>250.4</v>
+        <v>306.7</v>
       </c>
       <c r="B86">
-        <v>585900.2533067747</v>
+        <v>215238.0644127544</v>
       </c>
       <c r="C86">
-        <v>20338.44907176595</v>
+        <v>27745.49508065808</v>
       </c>
       <c r="D86">
-        <v>12011.83555624989</v>
+        <v>5451.066372135014</v>
       </c>
       <c r="E86">
-        <v>2242.609531201342</v>
+        <v>990.1847628326723</v>
       </c>
       <c r="F86">
-        <v>1659.267151286016</v>
+        <v>540.1442386714295</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>252.6</v>
+        <v>309</v>
       </c>
       <c r="B87">
-        <v>633883.9437685951</v>
+        <v>212392.1978655715</v>
       </c>
       <c r="C87">
-        <v>21186.16198372105</v>
+        <v>29496.34938311169</v>
       </c>
       <c r="D87">
-        <v>12885.11549438361</v>
+        <v>3935.571748048387</v>
       </c>
       <c r="E87">
-        <v>3041.150074479106</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1932.140606748009</v>
+        <v>535.3256513034701</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>254.9</v>
+        <v>311.3</v>
       </c>
       <c r="B88">
-        <v>664153.7110695892</v>
+        <v>198456.3313183888</v>
       </c>
       <c r="C88">
-        <v>20168.77093712864</v>
+        <v>30227.20368556529</v>
       </c>
       <c r="D88">
-        <v>11472.18088425065</v>
+        <v>3620.077123961732</v>
       </c>
       <c r="E88">
-        <v>1742.806096996775</v>
+        <v>279.8152371673241</v>
       </c>
       <c r="F88">
-        <v>1675.144673821911</v>
+        <v>460.5070639355087</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>257.5</v>
+        <v>313.6</v>
       </c>
       <c r="B89">
-        <v>707381.7088881043</v>
+        <v>190880.464771206</v>
       </c>
       <c r="C89">
-        <v>19236.06801489374</v>
+        <v>30518.05798801887</v>
       </c>
       <c r="D89">
-        <v>10280.60262931776</v>
+        <v>5954.58249987509</v>
       </c>
       <c r="E89">
-        <v>2513.80855723414</v>
+        <v>509.6304743346523</v>
       </c>
       <c r="F89">
-        <v>1558.540575731538</v>
+        <v>905.6884765675472</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>259.8</v>
+        <v>315.8</v>
       </c>
       <c r="B90">
-        <v>716251.4761890984</v>
+        <v>187537.0272043356</v>
       </c>
       <c r="C90">
-        <v>18698.67696830134</v>
+        <v>28501.48384253972</v>
       </c>
       <c r="D90">
-        <v>10757.66801918479</v>
+        <v>4719.326772487882</v>
       </c>
       <c r="E90">
-        <v>2325.464579751801</v>
+        <v>1555.540701190357</v>
       </c>
       <c r="F90">
-        <v>1821.544642805438</v>
+        <v>890.6446103894993</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>262.1</v>
+        <v>318.4</v>
       </c>
       <c r="B91">
-        <v>760591.2434900925</v>
+        <v>182733.8737162159</v>
       </c>
       <c r="C91">
-        <v>19261.28592170892</v>
+        <v>26174.62348879161</v>
       </c>
       <c r="D91">
-        <v>10224.73340905186</v>
+        <v>5073.115458302986</v>
       </c>
       <c r="E91">
-        <v>1907.120602269469</v>
+        <v>1397.070969292554</v>
       </c>
       <c r="F91">
-        <v>1434.54870987934</v>
+        <v>546.501859451805</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>264.4</v>
+        <v>320.7</v>
       </c>
       <c r="B92">
-        <v>755551.0107910868</v>
+        <v>175258.0071690331</v>
       </c>
       <c r="C92">
-        <v>18613.89487511653</v>
+        <v>20815.47779124521</v>
       </c>
       <c r="D92">
-        <v>9501.798798918906</v>
+        <v>5047.62083421633</v>
       </c>
       <c r="E92">
-        <v>2038.776624787138</v>
+        <v>956.8862064598825</v>
       </c>
       <c r="F92">
-        <v>1597.55277695324</v>
+        <v>811.6832720838437</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>266.7</v>
+        <v>323</v>
       </c>
       <c r="B93">
-        <v>753870.7780920808</v>
+        <v>163802.1406218503</v>
       </c>
       <c r="C93">
-        <v>19206.50382852412</v>
+        <v>16096.33209369881</v>
       </c>
       <c r="D93">
-        <v>10998.86418878595</v>
+        <v>5672.126210129689</v>
       </c>
       <c r="E93">
-        <v>1910.432647304806</v>
+        <v>876.7014436272102</v>
       </c>
       <c r="F93">
-        <v>1200.556844027142</v>
+        <v>286.8646847158841</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>268.9</v>
+        <v>325.3</v>
       </c>
       <c r="B94">
-        <v>776164.4685539013</v>
+        <v>161526.2740746675</v>
       </c>
       <c r="C94">
-        <v>17034.21674047921</v>
+        <v>10177.18639615239</v>
       </c>
       <c r="D94">
-        <v>7532.144126919648</v>
+        <v>4426.631586043048</v>
       </c>
       <c r="E94">
-        <v>1868.973190582574</v>
+        <v>1156.516680794535</v>
       </c>
       <c r="F94">
-        <v>1153.430299489133</v>
+        <v>412.0460973479227</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>271.5</v>
+        <v>327.5</v>
       </c>
       <c r="B95">
-        <v>754422.4663724165</v>
+        <v>163622.8365077971</v>
       </c>
       <c r="C95">
-        <v>17151.51381824433</v>
+        <v>9900.612250673237</v>
       </c>
       <c r="D95">
-        <v>9360.565871986753</v>
+        <v>5681.375858655825</v>
       </c>
       <c r="E95">
-        <v>1919.975650819935</v>
+        <v>1762.42690765024</v>
       </c>
       <c r="F95">
-        <v>1126.826201398762</v>
+        <v>547.0022311698748</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>273.8</v>
+        <v>329.8</v>
       </c>
       <c r="B96">
-        <v>726952.2336734105</v>
+        <v>157606.9699606143</v>
       </c>
       <c r="C96">
-        <v>18434.1227716519</v>
+        <v>5911.466553126824</v>
       </c>
       <c r="D96">
-        <v>9697.6312618538</v>
+        <v>6265.881234569184</v>
       </c>
       <c r="E96">
-        <v>2651.631673337603</v>
+        <v>592.2421448175678</v>
       </c>
       <c r="F96">
-        <v>1059.830268472662</v>
+        <v>572.1836438019135</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>276.1</v>
+        <v>332.4</v>
       </c>
       <c r="B97">
-        <v>676272.0009744046</v>
+        <v>158743.8164724946</v>
       </c>
       <c r="C97">
-        <v>18566.7317250595</v>
+        <v>5004.606199378728</v>
       </c>
       <c r="D97">
-        <v>8404.696651720849</v>
+        <v>5529.669920384287</v>
       </c>
       <c r="E97">
-        <v>1823.287695855265</v>
+        <v>803.772412919765</v>
       </c>
       <c r="F97">
-        <v>1202.834335546564</v>
+        <v>158.0408928642191</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>278.4</v>
+        <v>334.7</v>
       </c>
       <c r="B98">
-        <v>601721.7682753989</v>
+        <v>165647.9499253118</v>
       </c>
       <c r="C98">
-        <v>19729.34067846711</v>
+        <v>5195.460501832329</v>
       </c>
       <c r="D98">
-        <v>8951.762041587914</v>
+        <v>6024.175296297646</v>
       </c>
       <c r="E98">
-        <v>2074.943718372937</v>
+        <v>1973.587650087093</v>
       </c>
       <c r="F98">
-        <v>915.8384026204642</v>
+        <v>773.2223054962597</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>280.6</v>
+        <v>337</v>
       </c>
       <c r="B99">
-        <v>557305.4587372193</v>
+        <v>176572.0833781291</v>
       </c>
       <c r="C99">
-        <v>18577.05359042218</v>
+        <v>7486.314804285916</v>
       </c>
       <c r="D99">
-        <v>8285.041979721605</v>
+        <v>4948.680672211005</v>
       </c>
       <c r="E99">
-        <v>1753.484261650705</v>
+        <v>1973.402887254421</v>
       </c>
       <c r="F99">
-        <v>798.7118580824573</v>
+        <v>408.4037181282982</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>283</v>
+        <v>339.3</v>
       </c>
       <c r="B100">
-        <v>488531.302877387</v>
+        <v>178646.2168309462</v>
       </c>
       <c r="C100">
-        <v>17194.55858528229</v>
+        <v>7377.169106739506</v>
       </c>
       <c r="D100">
-        <v>6895.89282132201</v>
+        <v>6613.186048124364</v>
       </c>
       <c r="E100">
-        <v>1488.25576340827</v>
+        <v>1853.218124421745</v>
       </c>
       <c r="F100">
-        <v>571.8465367682663</v>
+        <v>513.5851307603386</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>285.6</v>
+        <v>341.5</v>
       </c>
       <c r="B101">
-        <v>433409.3006959021</v>
+        <v>181922.7792640757</v>
       </c>
       <c r="C101">
-        <v>18861.85566304738</v>
+        <v>7620.594961260345</v>
       </c>
       <c r="D101">
-        <v>9594.314566389097</v>
+        <v>6047.930320737141</v>
       </c>
       <c r="E101">
-        <v>1679.258223645631</v>
+        <v>3349.12835127745</v>
       </c>
       <c r="F101">
-        <v>1325.242438677895</v>
+        <v>718.5412645822889</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>287.9</v>
+        <v>343.8</v>
       </c>
       <c r="B102">
-        <v>393619.0679968963</v>
+        <v>193396.912716893</v>
       </c>
       <c r="C102">
-        <v>19524.46461645499</v>
+        <v>7241.449263713936</v>
       </c>
       <c r="D102">
-        <v>7741.379956256147</v>
+        <v>6822.4356966505</v>
       </c>
       <c r="E102">
-        <v>2110.9142461633</v>
+        <v>2628.943588444778</v>
       </c>
       <c r="F102">
-        <v>968.2465057517951</v>
+        <v>573.7226772143295</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>290.2</v>
+        <v>346.4</v>
       </c>
       <c r="B103">
-        <v>358048.8352978904</v>
+        <v>192453.7592287732</v>
       </c>
       <c r="C103">
-        <v>20367.07356986258</v>
+        <v>6274.588909965851</v>
       </c>
       <c r="D103">
-        <v>6438.445346123211</v>
+        <v>5766.224382465603</v>
       </c>
       <c r="E103">
-        <v>1832.570268680964</v>
+        <v>4520.473856546975</v>
       </c>
       <c r="F103">
-        <v>661.2505728256953</v>
+        <v>569.5799262766351</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>292.4</v>
+        <v>348.7</v>
       </c>
       <c r="B104">
-        <v>330102.5257597108</v>
+        <v>196317.8926815906</v>
       </c>
       <c r="C104">
-        <v>19294.78648181766</v>
+        <v>5245.443212419441</v>
       </c>
       <c r="D104">
-        <v>6431.725284256907</v>
+        <v>6990.729758378962</v>
       </c>
       <c r="E104">
-        <v>1781.110811958736</v>
+        <v>5300.289093714304</v>
       </c>
       <c r="F104">
-        <v>1274.124028287688</v>
+        <v>584.7613389086738</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="B105">
-        <v>306010.5235782259</v>
+        <v>211892.0261344077</v>
       </c>
       <c r="C105">
-        <v>20572.08355958278</v>
+        <v>7096.297514873027</v>
       </c>
       <c r="D105">
-        <v>5880.147029323998</v>
+        <v>5915.235134292321</v>
       </c>
       <c r="E105">
-        <v>822.1132721960973</v>
+        <v>6760.104330881632</v>
       </c>
       <c r="F105">
-        <v>477.5199301973151</v>
+        <v>609.9427515407142</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>297.3</v>
+        <v>353.3</v>
       </c>
       <c r="B106">
-        <v>274140.2908792202</v>
+        <v>214046.1595872249</v>
       </c>
       <c r="C106">
-        <v>25074.69251299035</v>
+        <v>8037.151817326629</v>
       </c>
       <c r="D106">
-        <v>6747.212419191044</v>
+        <v>9119.74051020568</v>
       </c>
       <c r="E106">
-        <v>563.7692947137623</v>
+        <v>8659.919568048956</v>
       </c>
       <c r="F106">
-        <v>580.5239972712171</v>
+        <v>285.1241641727528</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>299.6</v>
+        <v>355.5</v>
       </c>
       <c r="B107">
-        <v>254370.0581802143</v>
+        <v>221102.7220203544</v>
       </c>
       <c r="C107">
-        <v>26017.30146639796</v>
+        <v>6630.577671847457</v>
       </c>
       <c r="D107">
-        <v>7404.277809058105</v>
+        <v>8904.48478281845</v>
       </c>
       <c r="E107">
-        <v>765.4253172314268</v>
+        <v>9685.829794904661</v>
       </c>
       <c r="F107">
-        <v>873.5280643451172</v>
+        <v>630.0802979947049</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>301.8</v>
+        <v>357.9</v>
       </c>
       <c r="B108">
-        <v>251793.7486420347</v>
+        <v>234164.4264928594</v>
       </c>
       <c r="C108">
-        <v>29215.01437835305</v>
+        <v>7288.86042223382</v>
       </c>
       <c r="D108">
-        <v>7727.5577471918</v>
+        <v>8158.751262032391</v>
       </c>
       <c r="E108">
-        <v>1123.965860509199</v>
+        <v>11919.55004238361</v>
       </c>
       <c r="F108">
-        <v>726.4015198071104</v>
+        <v>645.486989436832</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>304.1</v>
+        <v>360.5</v>
       </c>
       <c r="B109">
-        <v>231273.5159430288</v>
+        <v>246001.2730047397</v>
       </c>
       <c r="C109">
-        <v>32147.62333176064</v>
+        <v>8382.00006848572</v>
       </c>
       <c r="D109">
-        <v>6184.62313705885</v>
+        <v>10982.5399478475</v>
       </c>
       <c r="E109">
-        <v>1155.621883026863</v>
+        <v>16171.08031048581</v>
       </c>
       <c r="F109">
-        <v>789.4055868810105</v>
+        <v>231.3442384991376</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>306.7</v>
+        <v>362.7</v>
       </c>
       <c r="B110">
-        <v>216721.513761544</v>
+        <v>275047.8354378692</v>
       </c>
       <c r="C110">
-        <v>33784.92040952576</v>
+        <v>8825.425923006549</v>
       </c>
       <c r="D110">
-        <v>6613.044882125956</v>
+        <v>13007.28422046027</v>
       </c>
       <c r="E110">
-        <v>1396.624343264228</v>
+        <v>19696.99053734151</v>
       </c>
       <c r="F110">
-        <v>762.8014887906392</v>
+        <v>686.3003723210896</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="B111">
-        <v>213611.2810625381</v>
+        <v>283841.9688906864</v>
       </c>
       <c r="C111">
-        <v>35477.52936293335</v>
+        <v>8826.28022546015</v>
       </c>
       <c r="D111">
-        <v>4730.110271993006</v>
+        <v>13051.78959637363</v>
       </c>
       <c r="E111">
-        <v>388.2803657818934</v>
+        <v>25636.80577450884</v>
       </c>
       <c r="F111">
-        <v>755.8055558645393</v>
+        <v>521.4817849531283</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>311.3</v>
+        <v>367.3</v>
       </c>
       <c r="B112">
-        <v>199411.0483635323</v>
+        <v>304646.1023435036</v>
       </c>
       <c r="C112">
-        <v>36150.13831634093</v>
+        <v>8137.134527913751</v>
       </c>
       <c r="D112">
-        <v>4047.175661860052</v>
+        <v>13126.29497228699</v>
       </c>
       <c r="E112">
-        <v>649.9363882995615</v>
+        <v>29586.62101167617</v>
       </c>
       <c r="F112">
-        <v>678.8096229384413</v>
+        <v>576.6631975851687</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>313.6</v>
+        <v>369.6</v>
       </c>
       <c r="B113">
-        <v>191570.8156645264</v>
+        <v>325190.2357963209</v>
       </c>
       <c r="C113">
-        <v>36382.74726974854</v>
+        <v>8997.988830367342</v>
       </c>
       <c r="D113">
-        <v>6014.241051727098</v>
+        <v>14630.80034820035</v>
       </c>
       <c r="E113">
-        <v>861.592410817226</v>
+        <v>38646.43624884349</v>
       </c>
       <c r="F113">
-        <v>1121.813690012341</v>
+        <v>571.8446102172073</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>315.8</v>
+        <v>371.9</v>
       </c>
       <c r="B114">
-        <v>187974.5061263469</v>
+        <v>342394.369249138</v>
       </c>
       <c r="C114">
-        <v>34310.46018170362</v>
+        <v>8558.843132820946</v>
       </c>
       <c r="D114">
-        <v>4427.520989860797</v>
+        <v>17045.3057241137</v>
       </c>
       <c r="E114">
-        <v>1890.132954094994</v>
+        <v>48056.25148601083</v>
       </c>
       <c r="F114">
-        <v>1104.687145474335</v>
+        <v>257.026022849248</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>318.4</v>
+        <v>374.5</v>
       </c>
       <c r="B115">
-        <v>182872.5039448619</v>
+        <v>367811.2157610184</v>
       </c>
       <c r="C115">
-        <v>31917.75725946873</v>
+        <v>7311.982779072832</v>
       </c>
       <c r="D115">
-        <v>4365.942734927903</v>
+        <v>16729.09440992881</v>
       </c>
       <c r="E115">
-        <v>1711.135414332359</v>
+        <v>60517.78175411302</v>
       </c>
       <c r="F115">
-        <v>758.0830473839613</v>
+        <v>692.8832719115536</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>320.7</v>
+        <v>376.8</v>
       </c>
       <c r="B116">
-        <v>175132.271245856</v>
+        <v>424735.3492138357</v>
       </c>
       <c r="C116">
-        <v>26500.36621287632</v>
+        <v>7972.837081526433</v>
       </c>
       <c r="D116">
-        <v>3973.008124794949</v>
+        <v>21423.59978584215</v>
       </c>
       <c r="E116">
-        <v>1252.791436850024</v>
+        <v>80917.59699128034</v>
       </c>
       <c r="F116">
-        <v>1021.087114457863</v>
+        <v>678.0646845435922</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="B117">
-        <v>163412.0385468502</v>
+        <v>473771.9116469651</v>
       </c>
       <c r="C117">
-        <v>21722.97516628391</v>
+        <v>9116.262936047262</v>
       </c>
       <c r="D117">
-        <v>4230.073514661999</v>
+        <v>24468.34405845493</v>
       </c>
       <c r="E117">
-        <v>1154.447459367693</v>
+        <v>102643.507218136</v>
       </c>
       <c r="F117">
-        <v>494.0911815317635</v>
+        <v>563.0208183655443</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>325.3</v>
+        <v>381.3</v>
       </c>
       <c r="B118">
-        <v>160871.8058478443</v>
+        <v>538026.0450997823</v>
       </c>
       <c r="C118">
-        <v>15745.5841196915</v>
+        <v>7867.117238500863</v>
       </c>
       <c r="D118">
-        <v>2617.138904529045</v>
+        <v>27602.84943436831</v>
       </c>
       <c r="E118">
-        <v>1416.103481885357</v>
+        <v>131113.3224553034</v>
       </c>
       <c r="F118">
-        <v>617.0952486056653</v>
+        <v>338.2022309975829</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>327.5</v>
+        <v>383.6</v>
       </c>
       <c r="B119">
-        <v>162715.4963096648</v>
+        <v>636660.1785525996</v>
       </c>
       <c r="C119">
-        <v>15413.2970316466</v>
+        <v>9147.97154095445</v>
       </c>
       <c r="D119">
-        <v>3520.418842662755</v>
+        <v>34487.35481028165</v>
       </c>
       <c r="E119">
-        <v>2004.644025163125</v>
+        <v>159173.1376924707</v>
       </c>
       <c r="F119">
-        <v>749.9687040676567</v>
+        <v>793.3836436296233</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>329.8</v>
+        <v>386.2</v>
       </c>
       <c r="B120">
-        <v>156435.263610659</v>
+        <v>719047.0250644799</v>
       </c>
       <c r="C120">
-        <v>11365.90598505419</v>
+        <v>9811.111187206354</v>
       </c>
       <c r="D120">
-        <v>3737.484232529805</v>
+        <v>38241.14349609675</v>
       </c>
       <c r="E120">
-        <v>816.3000476807936</v>
+        <v>185134.6679605729</v>
       </c>
       <c r="F120">
-        <v>772.9727711415587</v>
+        <v>459.240892691929</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>332.4</v>
+        <v>388.5</v>
       </c>
       <c r="B121">
-        <v>157273.261429174</v>
+        <v>766731.1585172972</v>
       </c>
       <c r="C121">
-        <v>10393.2030628193</v>
+        <v>9111.965489659955</v>
       </c>
       <c r="D121">
-        <v>2585.905977596896</v>
+        <v>44115.64887201012</v>
       </c>
       <c r="E121">
-        <v>1007.302507918159</v>
+        <v>201554.4831977402</v>
       </c>
       <c r="F121">
-        <v>356.3686730511855</v>
+        <v>494.4223053239676</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>334.7</v>
+        <v>390.7</v>
       </c>
       <c r="B122">
-        <v>163913.0287301681</v>
+        <v>816437.7209504268</v>
       </c>
       <c r="C122">
-        <v>10525.81201622689</v>
+        <v>8705.391344180784</v>
       </c>
       <c r="D122">
-        <v>2712.971367463961</v>
+        <v>48060.3931446229</v>
       </c>
       <c r="E122">
-        <v>2158.958530435823</v>
+        <v>210910.3934245959</v>
       </c>
       <c r="F122">
-        <v>969.3727401250857</v>
+        <v>839.3784391459197</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="B123">
-        <v>174572.7960311623</v>
+        <v>838511.8544032437</v>
       </c>
       <c r="C123">
-        <v>12758.42096963448</v>
+        <v>7836.245646634385</v>
       </c>
       <c r="D123">
-        <v>1270.036757331007</v>
+        <v>53264.89852053626</v>
       </c>
       <c r="E123">
-        <v>2140.614552953488</v>
+        <v>214660.2086617633</v>
       </c>
       <c r="F123">
-        <v>602.3768071989876</v>
+        <v>324.5598517779584</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>339.3</v>
+        <v>395.3</v>
       </c>
       <c r="B124">
-        <v>176382.5633321564</v>
+        <v>836465.9878560611</v>
       </c>
       <c r="C124">
-        <v>12591.02992304208</v>
+        <v>11077.09994908797</v>
       </c>
       <c r="D124">
-        <v>2567.102147198053</v>
+        <v>59759.40389644963</v>
       </c>
       <c r="E124">
-        <v>2002.270575471156</v>
+        <v>214020.0238989306</v>
       </c>
       <c r="F124">
-        <v>705.3808742728877</v>
+        <v>549.7412644099988</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>341.5</v>
+        <v>397.9</v>
       </c>
       <c r="B125">
-        <v>179406.2537939769</v>
+        <v>824982.8343679414</v>
       </c>
       <c r="C125">
-        <v>12778.74283499717</v>
+        <v>11280.23959533988</v>
       </c>
       <c r="D125">
-        <v>1650.382085331748</v>
+        <v>66243.19258226472</v>
       </c>
       <c r="E125">
-        <v>3480.811118748925</v>
+        <v>207791.5541670328</v>
       </c>
       <c r="F125">
-        <v>908.2543297348809</v>
+        <v>765.5985134723046</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>343.8</v>
+        <v>400.2</v>
       </c>
       <c r="B126">
-        <v>190616.0210949711</v>
+        <v>802416.9678207587</v>
       </c>
       <c r="C126">
-        <v>12341.35178840476</v>
+        <v>11981.09389779348</v>
       </c>
       <c r="D126">
-        <v>2057.447475198798</v>
+        <v>75427.69795817806</v>
       </c>
       <c r="E126">
-        <v>2742.467141266589</v>
+        <v>201031.3694042001</v>
       </c>
       <c r="F126">
-        <v>761.2583968087829</v>
+        <v>820.7799261043432</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>346.4</v>
+        <v>402.5</v>
       </c>
       <c r="B127">
-        <v>189374.0189134862</v>
+        <v>779711.1012735758</v>
       </c>
       <c r="C127">
-        <v>11308.64886616988</v>
+        <v>9241.948200247063</v>
       </c>
       <c r="D127">
-        <v>585.869220265904</v>
+        <v>85992.20333409143</v>
       </c>
       <c r="E127">
-        <v>4613.469601503954</v>
+        <v>194031.1846413674</v>
       </c>
       <c r="F127">
-        <v>754.6542987184097</v>
+        <v>805.9613387363836</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>348.7</v>
+        <v>404.7</v>
       </c>
       <c r="B128">
-        <v>192973.7862144802</v>
+        <v>767417.6637067053</v>
       </c>
       <c r="C128">
-        <v>10221.25781957747</v>
+        <v>7075.374054767906</v>
       </c>
       <c r="D128">
-        <v>1442.934610132954</v>
+        <v>99396.94760670421</v>
       </c>
       <c r="E128">
-        <v>5375.125624021623</v>
+        <v>181367.0948682231</v>
       </c>
       <c r="F128">
-        <v>767.6583657923098</v>
+        <v>690.9174725583339</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="B129">
-        <v>208283.5535154744</v>
+        <v>727881.7971595225</v>
       </c>
       <c r="C129">
-        <v>12013.86677298506</v>
+        <v>7986.228357221493</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>111141.4529826176</v>
       </c>
       <c r="E129">
-        <v>6816.781646539288</v>
+        <v>186606.9101053905</v>
       </c>
       <c r="F129">
-        <v>790.6624328662118</v>
+        <v>936.0988851903743</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>353.3</v>
+        <v>409.6</v>
       </c>
       <c r="B130">
-        <v>210173.3208164685</v>
+        <v>766308.6436714029</v>
       </c>
       <c r="C130">
-        <v>12896.47572639265</v>
+        <v>9979.368003473393</v>
       </c>
       <c r="D130">
-        <v>2837.065389867046</v>
+        <v>132385.2416684327</v>
       </c>
       <c r="E130">
-        <v>8698.437669056952</v>
+        <v>197008.4403734927</v>
       </c>
       <c r="F130">
-        <v>463.6664999401119</v>
+        <v>1011.95613425268</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>355.5</v>
+        <v>411.9</v>
       </c>
       <c r="B131">
-        <v>216977.011278289</v>
+        <v>784222.7771242203</v>
       </c>
       <c r="C131">
-        <v>11434.18863834774</v>
+        <v>10520.222305927</v>
       </c>
       <c r="D131">
-        <v>2270.345328000745</v>
+        <v>153019.747044346</v>
       </c>
       <c r="E131">
-        <v>9706.978212334721</v>
+        <v>204438.25561066</v>
       </c>
       <c r="F131">
-        <v>806.5399554021051</v>
+        <v>707.1375468847186</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>357.9</v>
+        <v>414.1</v>
       </c>
       <c r="B132">
-        <v>229762.8554184568</v>
+        <v>845799.3395573498</v>
       </c>
       <c r="C132">
-        <v>12031.69363320784</v>
+        <v>9233.648160447823</v>
       </c>
       <c r="D132">
-        <v>1141.196169601146</v>
+        <v>174294.4913169588</v>
       </c>
       <c r="E132">
-        <v>11921.74971409229</v>
+        <v>214394.1658375157</v>
       </c>
       <c r="F132">
-        <v>819.6746340879141</v>
+        <v>992.0936807066688</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>360.5</v>
+        <v>416.4</v>
       </c>
       <c r="B133">
-        <v>241300.8532369719</v>
+        <v>883473.4730101668</v>
       </c>
       <c r="C133">
-        <v>13058.99071097295</v>
+        <v>11084.50246290143</v>
       </c>
       <c r="D133">
-        <v>3549.617914668248</v>
+        <v>199958.9966928721</v>
       </c>
       <c r="E133">
-        <v>16152.75217432965</v>
+        <v>228203.981074683</v>
       </c>
       <c r="F133">
-        <v>403.0705359975426</v>
+        <v>1157.275093338709</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>362.7</v>
+        <v>418.7</v>
       </c>
       <c r="B134">
-        <v>270094.5436987923</v>
+        <v>973607.6064629841</v>
       </c>
       <c r="C134">
-        <v>13446.70362292803</v>
+        <v>9275.356765355014</v>
       </c>
       <c r="D134">
-        <v>5222.897852801947</v>
+        <v>223263.5020687855</v>
       </c>
       <c r="E134">
-        <v>19661.29271760742</v>
+        <v>254933.7963118503</v>
       </c>
       <c r="F134">
-        <v>855.943991459534</v>
+        <v>1192.45650597075</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>365</v>
+        <v>420.9</v>
       </c>
       <c r="B135">
-        <v>278624.3109997865</v>
+        <v>1081844.168896114</v>
       </c>
       <c r="C135">
-        <v>13389.31257633563</v>
+        <v>11788.78261987586</v>
       </c>
       <c r="D135">
-        <v>4899.963242669008</v>
+        <v>256638.2463413983</v>
       </c>
       <c r="E135">
-        <v>25582.94874012508</v>
+        <v>326219.706538706</v>
       </c>
       <c r="F135">
-        <v>688.9480585334359</v>
+        <v>1027.4126397927</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>367.3</v>
+        <v>423.5</v>
       </c>
       <c r="B136">
-        <v>299164.0783007806</v>
+        <v>1405511.015407994</v>
       </c>
       <c r="C136">
-        <v>12641.92152974321</v>
+        <v>11811.92226612774</v>
       </c>
       <c r="D136">
-        <v>4607.028632536039</v>
+        <v>289182.0350272135</v>
       </c>
       <c r="E136">
-        <v>29514.60476264275</v>
+        <v>500051.2368068083</v>
       </c>
       <c r="F136">
-        <v>741.952125607336</v>
+        <v>1023.269888855006</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>369.6</v>
+        <v>425.7</v>
       </c>
       <c r="B137">
-        <v>319443.8456017748</v>
+        <v>1509237.577841124</v>
       </c>
       <c r="C137">
-        <v>13444.5304831508</v>
+        <v>14425.34812064859</v>
       </c>
       <c r="D137">
-        <v>5744.094022403104</v>
+        <v>315446.7792998262</v>
       </c>
       <c r="E137">
-        <v>38556.26078516042</v>
+        <v>471917.1470336639</v>
       </c>
       <c r="F137">
-        <v>734.956192681238</v>
+        <v>1168.226022676956</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>371.9</v>
+        <v>428</v>
       </c>
       <c r="B138">
-        <v>336383.6129027688</v>
+        <v>1505661.711293941</v>
       </c>
       <c r="C138">
-        <v>12947.13943655841</v>
+        <v>12756.20242310217</v>
       </c>
       <c r="D138">
-        <v>7791.159412270154</v>
+        <v>327571.2846757396</v>
       </c>
       <c r="E138">
-        <v>47947.9168076781</v>
+        <v>375886.9622708313</v>
       </c>
       <c r="F138">
-        <v>417.9602597551383</v>
+        <v>893.4074353089965</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>374.5</v>
+        <v>430.3</v>
       </c>
       <c r="B139">
-        <v>361501.6107212839</v>
+        <v>1434585.844746758</v>
       </c>
       <c r="C139">
-        <v>11634.43651432352</v>
+        <v>12447.05672555577</v>
       </c>
       <c r="D139">
-        <v>7059.581157337245</v>
+        <v>319105.7900516529</v>
       </c>
       <c r="E139">
-        <v>60388.91926791547</v>
+        <v>153906.7775079986</v>
       </c>
       <c r="F139">
-        <v>851.356161664765</v>
+        <v>568.5888479410351</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>376.8</v>
+        <v>432.9</v>
       </c>
       <c r="B140">
-        <v>418161.3780222781</v>
+        <v>858842.6912586382</v>
       </c>
       <c r="C140">
-        <v>12237.0454677311</v>
+        <v>11210.19637180766</v>
       </c>
       <c r="D140">
-        <v>11386.64654720431</v>
+        <v>302979.5787374681</v>
       </c>
       <c r="E140">
-        <v>80770.57529043313</v>
+        <v>64868.30777610082</v>
       </c>
       <c r="F140">
-        <v>834.3602287386669</v>
+        <v>744.4460970033408</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>379</v>
+        <v>434.8</v>
       </c>
       <c r="B141">
-        <v>466945.0684840986</v>
+        <v>579176.5406327047</v>
       </c>
       <c r="C141">
-        <v>13324.75837968619</v>
+        <v>11051.3368825302</v>
       </c>
       <c r="D141">
-        <v>14079.926485338</v>
+        <v>289745.0397001791</v>
       </c>
       <c r="E141">
-        <v>102479.1158337109</v>
+        <v>53242.50297202164</v>
       </c>
       <c r="F141">
-        <v>717.2336842006582</v>
+        <v>238.7263943950257</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>381.3</v>
+        <v>437.4</v>
       </c>
       <c r="B142">
-        <v>530934.8357850929</v>
+        <v>493203.3871445849</v>
       </c>
       <c r="C142">
-        <v>12017.36733309378</v>
+        <v>10694.47652878211</v>
       </c>
       <c r="D142">
-        <v>16846.99187520505</v>
+        <v>278038.8283859941</v>
       </c>
       <c r="E142">
-        <v>130930.7718562286</v>
+        <v>46864.03324012384</v>
       </c>
       <c r="F142">
-        <v>490.2377512745602</v>
+        <v>524.5836434573315</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>383.6</v>
+        <v>439.6</v>
       </c>
       <c r="B143">
-        <v>629304.6030860869</v>
+        <v>441979.9495777144</v>
       </c>
       <c r="C143">
-        <v>13239.97628650138</v>
+        <v>10417.90238330292</v>
       </c>
       <c r="D143">
-        <v>23364.0572650721</v>
+        <v>257023.572658607</v>
       </c>
       <c r="E143">
-        <v>158972.4278787462</v>
+        <v>43409.94346697954</v>
       </c>
       <c r="F143">
-        <v>943.2418183484622</v>
+        <v>569.5397772792835</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>386.2</v>
+        <v>441.9</v>
       </c>
       <c r="B144">
-        <v>711392.600904602</v>
+        <v>398934.0830305317</v>
       </c>
       <c r="C144">
-        <v>13837.27336426649</v>
+        <v>8048.756685756538</v>
       </c>
       <c r="D144">
-        <v>26702.4790101392</v>
+        <v>236208.0780345203</v>
       </c>
       <c r="E144">
-        <v>184913.4303389836</v>
+        <v>40329.75870414688</v>
       </c>
       <c r="F144">
-        <v>606.637720258089</v>
+        <v>604.7211899113222</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>388.5</v>
+        <v>444.2</v>
       </c>
       <c r="B145">
-        <v>758812.3682055961</v>
+        <v>376928.2164833489</v>
       </c>
       <c r="C145">
-        <v>13079.88231767408</v>
+        <v>10419.61098821012</v>
       </c>
       <c r="D145">
-        <v>32209.54440000625</v>
+        <v>211822.5834104337</v>
       </c>
       <c r="E145">
-        <v>201315.0863615012</v>
+        <v>37899.5739413142</v>
       </c>
       <c r="F145">
-        <v>639.6417873319891</v>
+        <v>299.9026025433626</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>390.7</v>
+        <v>446.8</v>
       </c>
       <c r="B146">
-        <v>808266.0586674166</v>
+        <v>349955.0629952293</v>
       </c>
       <c r="C146">
-        <v>12617.59522962918</v>
+        <v>9082.750634462011</v>
       </c>
       <c r="D146">
-        <v>35802.82433813996</v>
+        <v>188996.3720962488</v>
       </c>
       <c r="E146">
-        <v>210653.626904779</v>
+        <v>35251.1042094164</v>
       </c>
       <c r="F146">
-        <v>982.5152427939823</v>
+        <v>325.7598516056682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="B147">
-        <v>830075.8259684107</v>
+        <v>317921.6254283588</v>
       </c>
       <c r="C147">
-        <v>11690.20418303677</v>
+        <v>10286.17648898285</v>
       </c>
       <c r="D147">
-        <v>40639.88972800699</v>
+        <v>163071.1163688615</v>
       </c>
       <c r="E147">
-        <v>214385.2829272967</v>
+        <v>32727.0144362721</v>
       </c>
       <c r="F147">
-        <v>465.5193098678824</v>
+        <v>0.7159854276185342</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>395.3</v>
+        <v>451.3</v>
       </c>
       <c r="B148">
-        <v>827765.5932694047</v>
+        <v>306805.7588811759</v>
       </c>
       <c r="C148">
-        <v>14872.81313644436</v>
+        <v>10827.03079143644</v>
       </c>
       <c r="D148">
-        <v>46766.95511787406</v>
+        <v>139415.6217447748</v>
       </c>
       <c r="E148">
-        <v>213726.9389498144</v>
+        <v>30006.82967343942</v>
       </c>
       <c r="F148">
-        <v>688.5233769417844</v>
+        <v>575.8973980596589</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>397.9</v>
+        <v>453.6</v>
       </c>
       <c r="B149">
-        <v>815983.5910879198</v>
+        <v>273049.8923339931</v>
       </c>
       <c r="C149">
-        <v>15010.11021420946</v>
+        <v>7817.885093890041</v>
       </c>
       <c r="D149">
-        <v>52835.37686294113</v>
+        <v>123650.1271206882</v>
       </c>
       <c r="E149">
-        <v>207477.9414100517</v>
+        <v>27956.64491060676</v>
       </c>
       <c r="F149">
-        <v>901.9192788514111</v>
+        <v>771.0788106916976</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>400.2</v>
+        <v>455.9</v>
       </c>
       <c r="B150">
-        <v>793153.3583889141</v>
+        <v>268554.0257868104</v>
       </c>
       <c r="C150">
-        <v>15652.71916761706</v>
+        <v>9548.739396343646</v>
       </c>
       <c r="D150">
-        <v>61652.44225280819</v>
+        <v>110344.6324966016</v>
       </c>
       <c r="E150">
-        <v>200699.5974325694</v>
+        <v>26026.46014777408</v>
       </c>
       <c r="F150">
-        <v>954.9233459253131</v>
+        <v>716.2602233237363</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>402.5</v>
+        <v>458.5</v>
       </c>
       <c r="B151">
-        <v>770183.1256899082</v>
+        <v>247970.8722986907</v>
       </c>
       <c r="C151">
-        <v>12855.32812102466</v>
+        <v>8651.879042595532</v>
       </c>
       <c r="D151">
-        <v>71849.50764267526</v>
+        <v>97378.42118241667</v>
       </c>
       <c r="E151">
-        <v>193681.253455087</v>
+        <v>23827.99041587628</v>
       </c>
       <c r="F151">
-        <v>937.9274129992133</v>
+        <v>602.117472386042</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>404.7</v>
+        <v>460.8</v>
       </c>
       <c r="B152">
-        <v>757636.8161517287</v>
+        <v>235485.0057515079</v>
       </c>
       <c r="C152">
-        <v>10633.04103297975</v>
+        <v>8712.733345049133</v>
       </c>
       <c r="D152">
-        <v>84902.78758080896</v>
+        <v>93222.92655833004</v>
       </c>
       <c r="E152">
-        <v>180999.7939983648</v>
+        <v>20877.80565304361</v>
       </c>
       <c r="F152">
-        <v>820.8008684612065</v>
+        <v>357.2988850180824</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="B153">
-        <v>717836.5834527228</v>
+        <v>215041.5681846375</v>
       </c>
       <c r="C153">
-        <v>11485.64998638734</v>
+        <v>6096.159199569962</v>
       </c>
       <c r="D153">
-        <v>96279.85297067599</v>
+        <v>86867.67083094281</v>
       </c>
       <c r="E153">
-        <v>186221.4500208825</v>
+        <v>18873.71587989932</v>
       </c>
       <c r="F153">
-        <v>1063.804935535107</v>
+        <v>442.2550188400327</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>409.6</v>
+        <v>465.3</v>
       </c>
       <c r="B154">
-        <v>755964.5812712378</v>
+        <v>203265.7016374546</v>
       </c>
       <c r="C154">
-        <v>13412.94706415244</v>
+        <v>8447.013502023563</v>
       </c>
       <c r="D154">
-        <v>117108.2747157431</v>
+        <v>85542.17620685615</v>
       </c>
       <c r="E154">
-        <v>196602.4524811198</v>
+        <v>17243.53111706664</v>
       </c>
       <c r="F154">
-        <v>1137.200837444733</v>
+        <v>247.4364314720731</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>411.9</v>
+        <v>467.5</v>
       </c>
       <c r="B155">
-        <v>773614.3485722319</v>
+        <v>195042.2640705841</v>
       </c>
       <c r="C155">
-        <v>13895.55601756005</v>
+        <v>8470.439356544392</v>
       </c>
       <c r="D155">
-        <v>137375.3401056102</v>
+        <v>82076.92047946894</v>
       </c>
       <c r="E155">
-        <v>204014.1085036375</v>
+        <v>17029.44134392234</v>
       </c>
       <c r="F155">
-        <v>830.2049045186353</v>
+        <v>572.3925652940234</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>414.1</v>
+        <v>469.8</v>
       </c>
       <c r="B156">
-        <v>834938.0390340524</v>
+        <v>184146.3975234014</v>
       </c>
       <c r="C156">
-        <v>12553.26892951511</v>
+        <v>8201.293658997993</v>
       </c>
       <c r="D156">
-        <v>158298.6200437438</v>
+        <v>80051.42585538232</v>
       </c>
       <c r="E156">
-        <v>213952.6490469153</v>
+        <v>15619.25658108967</v>
       </c>
       <c r="F156">
-        <v>1113.078359980628</v>
+        <v>247.5739779260638</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>416.4</v>
+        <v>472.5</v>
       </c>
       <c r="B157">
-        <v>872347.8063350468</v>
+        <v>169760.8150549695</v>
       </c>
       <c r="C157">
-        <v>14345.87788292272</v>
+        <v>7221.861753182655</v>
       </c>
       <c r="D157">
-        <v>183595.6854336109</v>
+        <v>81944.97564449799</v>
       </c>
       <c r="E157">
-        <v>227744.3050694329</v>
+        <v>13694.69185950349</v>
       </c>
       <c r="F157">
-        <v>1276.082427054529</v>
+        <v>123.6565057984579</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>418.7</v>
+        <v>474.4</v>
       </c>
       <c r="B158">
-        <v>962217.5736360408</v>
+        <v>162554.6644290358</v>
       </c>
       <c r="C158">
-        <v>12478.48683633031</v>
+        <v>4833.002263905199</v>
       </c>
       <c r="D158">
-        <v>206532.750823478</v>
+        <v>75880.43660720902</v>
       </c>
       <c r="E158">
-        <v>254455.9610919506</v>
+        <v>13468.88705542433</v>
       </c>
       <c r="F158">
-        <v>1309.086494128431</v>
+        <v>367.936803190143</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>420.9</v>
+        <v>477</v>
       </c>
       <c r="B159">
-        <v>1070201.264097861</v>
+        <v>155411.5109409162</v>
       </c>
       <c r="C159">
-        <v>14936.19974828541</v>
+        <v>7486.141910157085</v>
       </c>
       <c r="D159">
-        <v>239556.0307616116</v>
+        <v>75964.22529302412</v>
       </c>
       <c r="E159">
-        <v>325724.5016352283</v>
+        <v>12840.41732352652</v>
       </c>
       <c r="F159">
-        <v>1141.959949590422</v>
+        <v>443.7940522524486</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>423.5</v>
+        <v>479.2</v>
       </c>
       <c r="B160">
-        <v>1393569.261916376</v>
+        <v>152318.0733740457</v>
       </c>
       <c r="C160">
-        <v>14893.49682605052</v>
+        <v>7439.567764677913</v>
       </c>
       <c r="D160">
-        <v>271684.4525066788</v>
+        <v>76328.9695656369</v>
       </c>
       <c r="E160">
-        <v>499535.5040954657</v>
+        <v>12586.32755038223</v>
       </c>
       <c r="F160">
-        <v>1135.355851500049</v>
+        <v>408.7501860743989</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>425.7</v>
+        <v>481.5</v>
       </c>
       <c r="B161">
-        <v>1497042.952378197</v>
+        <v>144492.2068268629</v>
       </c>
       <c r="C161">
-        <v>17451.2097380056</v>
+        <v>8490.422067131514</v>
       </c>
       <c r="D161">
-        <v>297597.7324448124</v>
+        <v>75783.47494155026</v>
       </c>
       <c r="E161">
-        <v>471384.0446387435</v>
+        <v>10956.14278754956</v>
       </c>
       <c r="F161">
-        <v>1278.229306962042</v>
+        <v>263.9315987064393</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>428</v>
+        <v>484.1</v>
       </c>
       <c r="B162">
-        <v>1493202.719679191</v>
+        <v>137179.0533387432</v>
       </c>
       <c r="C162">
-        <v>15723.81869141319</v>
+        <v>9273.5617133834</v>
       </c>
       <c r="D162">
-        <v>309354.7978346795</v>
+        <v>73417.26362736535</v>
       </c>
       <c r="E162">
-        <v>375335.7006612612</v>
+        <v>10837.67305565175</v>
       </c>
       <c r="F162">
-        <v>1001.233374035942</v>
+        <v>409.788847768745</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>430.3</v>
+        <v>486.4</v>
       </c>
       <c r="B163">
-        <v>1421862.486980185</v>
+        <v>134873.1867915605</v>
       </c>
       <c r="C163">
-        <v>15356.42764482078</v>
+        <v>8244.416015837005</v>
       </c>
       <c r="D163">
-        <v>300521.8632245465</v>
+        <v>72971.76900327872</v>
       </c>
       <c r="E163">
-        <v>153337.3566837788</v>
+        <v>9747.488292819075</v>
       </c>
       <c r="F163">
-        <v>674.2374411098439</v>
+        <v>494.9702604007837</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>432.9</v>
+        <v>488.6</v>
       </c>
       <c r="B164">
-        <v>845820.4847987001</v>
+        <v>126369.7492246901</v>
       </c>
       <c r="C164">
-        <v>14053.7247225859</v>
+        <v>7627.84187035783</v>
       </c>
       <c r="D164">
-        <v>283980.2849696136</v>
+        <v>72136.51327589148</v>
       </c>
       <c r="E164">
-        <v>64278.35914401623</v>
+        <v>9453.39851967478</v>
       </c>
       <c r="F164">
-        <v>847.6333430194707</v>
+        <v>339.9263942227357</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>434.8</v>
+        <v>490.9</v>
       </c>
       <c r="B165">
-        <v>565935.9447429999</v>
+        <v>120593.8826775072</v>
       </c>
       <c r="C165">
-        <v>13846.74951018347</v>
+        <v>8298.696172811435</v>
       </c>
       <c r="D165">
-        <v>270442.2085525473</v>
+        <v>71951.01865180484</v>
       </c>
       <c r="E165">
-        <v>52637.55324957428</v>
+        <v>8783.213756842115</v>
       </c>
       <c r="F165">
-        <v>340.1149636457371</v>
+        <v>265.1078068547744</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>437.4</v>
+        <v>493.1</v>
       </c>
       <c r="B166">
-        <v>479663.9425615147</v>
+        <v>114860.4451106367</v>
       </c>
       <c r="C166">
-        <v>13424.04658794858</v>
+        <v>6422.12202733226</v>
       </c>
       <c r="D166">
-        <v>258320.6302976143</v>
+        <v>70555.76292441762</v>
       </c>
       <c r="E166">
-        <v>46238.55570981164</v>
+        <v>9139.123983697813</v>
       </c>
       <c r="F166">
-        <v>623.510865555364</v>
+        <v>740.0639406767264</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>439.6</v>
+        <v>495.4</v>
       </c>
       <c r="B167">
-        <v>428187.6330233352</v>
+        <v>115394.5785634539</v>
       </c>
       <c r="C167">
-        <v>13091.75949990366</v>
+        <v>7032.976329785864</v>
       </c>
       <c r="D167">
-        <v>236953.9102357481</v>
+        <v>69590.26830033099</v>
       </c>
       <c r="E167">
-        <v>42767.0962530894</v>
+        <v>8278.939220865141</v>
       </c>
       <c r="F167">
-        <v>666.384321017357</v>
+        <v>595.2453533087651</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>441.9</v>
+        <v>497.7</v>
       </c>
       <c r="B168">
-        <v>384877.4003243294</v>
+        <v>104068.7120162711</v>
       </c>
       <c r="C168">
-        <v>10664.36845331127</v>
+        <v>7503.830632239466</v>
       </c>
       <c r="D168">
-        <v>215770.9756256151</v>
+        <v>68514.77367624434</v>
       </c>
       <c r="E168">
-        <v>39668.75227560708</v>
+        <v>8158.754458032468</v>
       </c>
       <c r="F168">
-        <v>699.3883880912573</v>
+        <v>930.4267659408056</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>444.2</v>
+        <v>500.3</v>
       </c>
       <c r="B169">
-        <v>362607.1676253235</v>
+        <v>102885.5585281514</v>
       </c>
       <c r="C169">
-        <v>12976.97740671886</v>
+        <v>7076.970278491352</v>
       </c>
       <c r="D169">
-        <v>191018.0410154822</v>
+        <v>66948.56236205944</v>
       </c>
       <c r="E169">
-        <v>37220.40829812474</v>
+        <v>8020.284726134665</v>
       </c>
       <c r="F169">
-        <v>392.3924551651593</v>
+        <v>216.2840150031111</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>446.8</v>
+        <v>502.2</v>
       </c>
       <c r="B170">
-        <v>335335.1654438386</v>
+        <v>103099.4079022179</v>
       </c>
       <c r="C170">
-        <v>11574.27448448396</v>
+        <v>8058.110789213895</v>
       </c>
       <c r="D170">
-        <v>167776.4627605493</v>
+        <v>66844.02332477049</v>
       </c>
       <c r="E170">
-        <v>34551.41075836211</v>
+        <v>7364.479922055501</v>
       </c>
       <c r="F170">
-        <v>415.7883570747859</v>
+        <v>370.5643123947963</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>449</v>
+        <v>504.8</v>
       </c>
       <c r="B171">
-        <v>303048.855905659</v>
+        <v>97806.25441409825</v>
       </c>
       <c r="C171">
-        <v>12721.98739643905</v>
+        <v>6191.250435465781</v>
       </c>
       <c r="D171">
-        <v>141499.742698683</v>
+        <v>64587.81201058556</v>
       </c>
       <c r="E171">
-        <v>32009.95130163986</v>
+        <v>6616.010190157695</v>
       </c>
       <c r="F171">
-        <v>88.66181253677905</v>
+        <v>206.4215614571019</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>451.3</v>
+        <v>507.1</v>
       </c>
       <c r="B172">
-        <v>291668.6232066531</v>
+        <v>99220.38786691544</v>
       </c>
       <c r="C172">
-        <v>13204.59634984664</v>
+        <v>8192.104737919382</v>
       </c>
       <c r="D172">
-        <v>117476.80808855</v>
+        <v>66122.31738649894</v>
       </c>
       <c r="E172">
-        <v>29271.60732415754</v>
+        <v>5935.825427325024</v>
       </c>
       <c r="F172">
-        <v>661.6658796106792</v>
+        <v>491.6029740891405</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>453.6</v>
+        <v>509.4</v>
       </c>
       <c r="B173">
-        <v>257648.3905076474</v>
+        <v>97164.52131973261</v>
       </c>
       <c r="C173">
-        <v>10137.20530325423</v>
+        <v>7552.959040372987</v>
       </c>
       <c r="D173">
-        <v>101343.8734784171</v>
+        <v>64446.82276241231</v>
       </c>
       <c r="E173">
-        <v>27203.2633466752</v>
+        <v>5745.640664492355</v>
       </c>
       <c r="F173">
-        <v>854.6699466845812</v>
+        <v>526.7843867211792</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>455.9</v>
+        <v>511.6</v>
       </c>
       <c r="B174">
-        <v>252888.1578086415</v>
+        <v>84401.08375286215</v>
       </c>
       <c r="C174">
-        <v>11809.81425666183</v>
+        <v>7056.384894893812</v>
       </c>
       <c r="D174">
-        <v>87670.93886828417</v>
+        <v>63311.56703502509</v>
       </c>
       <c r="E174">
-        <v>25254.91936919287</v>
+        <v>5701.550891348056</v>
       </c>
       <c r="F174">
-        <v>797.6740137584815</v>
+        <v>231.7405205431312</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>458.5</v>
+        <v>513.8</v>
       </c>
       <c r="B175">
-        <v>232006.1556271567</v>
+        <v>89347.64618599167</v>
       </c>
       <c r="C175">
-        <v>10847.11133442694</v>
+        <v>8459.810749414655</v>
       </c>
       <c r="D175">
-        <v>74289.36061335124</v>
+        <v>68486.31130763786</v>
       </c>
       <c r="E175">
-        <v>23035.92182943023</v>
+        <v>5447.461118203766</v>
       </c>
       <c r="F175">
-        <v>681.06991566811</v>
+        <v>326.6966543650816</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>460.8</v>
+        <v>516.3</v>
       </c>
       <c r="B176">
-        <v>219255.9229281507</v>
+        <v>86646.92167818424</v>
       </c>
       <c r="C176">
-        <v>10849.72028783453</v>
+        <v>8185.521947733783</v>
       </c>
       <c r="D176">
-        <v>69766.42600321829</v>
+        <v>68500.33889015237</v>
       </c>
       <c r="E176">
-        <v>20067.5778519479</v>
+        <v>5885.086375994336</v>
       </c>
       <c r="F176">
-        <v>434.0739827420101</v>
+        <v>732.3286246172988</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>463</v>
+        <v>518.8</v>
       </c>
       <c r="B177">
-        <v>198559.6133899712</v>
+        <v>75846.19717037694</v>
       </c>
       <c r="C177">
-        <v>8177.433199789615</v>
+        <v>8041.233146052908</v>
       </c>
       <c r="D177">
-        <v>63059.70594135199</v>
+        <v>64594.36647266691</v>
       </c>
       <c r="E177">
-        <v>18046.11839522567</v>
+        <v>5242.71163378491</v>
       </c>
       <c r="F177">
-        <v>516.9474382040032</v>
+        <v>187.9605948695161</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>465.3</v>
+        <v>521.2</v>
       </c>
       <c r="B178">
-        <v>186519.3806909653</v>
+        <v>70867.90164288189</v>
       </c>
       <c r="C178">
-        <v>10470.0421531972</v>
+        <v>8049.515896439252</v>
       </c>
       <c r="D178">
-        <v>61366.77133121905</v>
+        <v>62368.63295188082</v>
       </c>
       <c r="E178">
-        <v>16397.77441774333</v>
+        <v>4076.431881263857</v>
       </c>
       <c r="F178">
-        <v>319.9515052779034</v>
+        <v>313.3672863116448</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>467.5</v>
+        <v>523.4</v>
       </c>
       <c r="B179">
-        <v>178043.0711527858</v>
+        <v>67294.46407601141</v>
       </c>
       <c r="C179">
-        <v>10437.75506515231</v>
+        <v>5232.941750960095</v>
       </c>
       <c r="D179">
-        <v>57550.05126935275</v>
+        <v>58003.37722449363</v>
       </c>
       <c r="E179">
-        <v>16166.3149610211</v>
+        <v>4902.342108119566</v>
       </c>
       <c r="F179">
-        <v>642.8249607398965</v>
+        <v>258.3234201335952</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>469.8</v>
+        <v>525.9</v>
       </c>
       <c r="B180">
-        <v>166882.83845378</v>
+        <v>68943.73956820398</v>
       </c>
       <c r="C180">
-        <v>10110.36401855989</v>
+        <v>6548.652949279238</v>
       </c>
       <c r="D180">
-        <v>55157.11665921981</v>
+        <v>59257.40480700813</v>
       </c>
       <c r="E180">
-        <v>14737.97098353877</v>
+        <v>4969.967365910136</v>
       </c>
       <c r="F180">
-        <v>315.8290278137966</v>
+        <v>223.9553903858124</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>472.5</v>
+        <v>528.1</v>
       </c>
       <c r="B181">
-        <v>152186.9131114687</v>
+        <v>64790.30200133353</v>
       </c>
       <c r="C181">
-        <v>9062.557137777501</v>
+        <v>6222.078803800048</v>
       </c>
       <c r="D181">
-        <v>56619.32385602025</v>
+        <v>57102.14907962091</v>
       </c>
       <c r="E181">
-        <v>12792.08892301603</v>
+        <v>3965.877592765841</v>
       </c>
       <c r="F181">
-        <v>189.3555413353323</v>
+        <v>198.9115242077626</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>474.4</v>
+        <v>530.3</v>
       </c>
       <c r="B182">
-        <v>144762.3730557683</v>
+        <v>61636.86443446306</v>
       </c>
       <c r="C182">
-        <v>6625.581925375092</v>
+        <v>7105.504658320906</v>
       </c>
       <c r="D182">
-        <v>50251.24743895391</v>
+        <v>55936.89335223369</v>
       </c>
       <c r="E182">
-        <v>12551.28302857411</v>
+        <v>4561.787819621546</v>
       </c>
       <c r="F182">
-        <v>431.8371619615989</v>
+        <v>443.867658029713</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>477</v>
+        <v>532.5</v>
       </c>
       <c r="B183">
-        <v>137320.3708742833</v>
+        <v>64073.42686759259</v>
       </c>
       <c r="C183">
-        <v>9212.879003140195</v>
+        <v>6458.930512841716</v>
       </c>
       <c r="D183">
-        <v>49919.66918402101</v>
+        <v>54381.63762484645</v>
       </c>
       <c r="E183">
-        <v>11902.28548881146</v>
+        <v>4737.698046477251</v>
       </c>
       <c r="F183">
-        <v>505.2330638712256</v>
+        <v>788.823791851665</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>479.2</v>
+        <v>534.8</v>
       </c>
       <c r="B184">
-        <v>133974.0613361038</v>
+        <v>71447.56032040976</v>
       </c>
       <c r="C184">
-        <v>9110.59191509528</v>
+        <v>5429.784815295336</v>
       </c>
       <c r="D184">
-        <v>49932.94912215471</v>
+        <v>54476.14300075982</v>
       </c>
       <c r="E184">
-        <v>11630.82603208924</v>
+        <v>3367.513283644579</v>
       </c>
       <c r="F184">
-        <v>468.1065193332187</v>
+        <v>424.0052044837037</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>481.5</v>
+        <v>537.3</v>
       </c>
       <c r="B185">
-        <v>125883.8286370979</v>
+        <v>65736.83581260234</v>
       </c>
       <c r="C185">
-        <v>10103.20086850287</v>
+        <v>5545.49601361446</v>
       </c>
       <c r="D185">
-        <v>49020.01451202174</v>
+        <v>53180.17058327433</v>
       </c>
       <c r="E185">
-        <v>9982.482054606899</v>
+        <v>3165.138541435153</v>
       </c>
       <c r="F185">
-        <v>321.1105864071188</v>
+        <v>709.6371747359209</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>484.1</v>
+        <v>539.3</v>
       </c>
       <c r="B186">
-        <v>118271.826455613</v>
+        <v>66548.25620635647</v>
       </c>
       <c r="C186">
-        <v>10820.49794626797</v>
+        <v>7164.064972269765</v>
       </c>
       <c r="D186">
-        <v>46238.43625708884</v>
+        <v>52985.39264928595</v>
       </c>
       <c r="E186">
-        <v>9843.484514844262</v>
+        <v>4863.238747667612</v>
       </c>
       <c r="F186">
-        <v>464.5064883167474</v>
+        <v>504.1427509376944</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>486.4</v>
+        <v>541.9</v>
       </c>
       <c r="B187">
-        <v>115701.5937566072</v>
+        <v>66975.1027182368</v>
       </c>
       <c r="C187">
-        <v>9733.106899675578</v>
+        <v>5327.204618521651</v>
       </c>
       <c r="D187">
-        <v>45425.50164695588</v>
+        <v>50029.18133510105</v>
       </c>
       <c r="E187">
-        <v>8735.140537361931</v>
+        <v>2614.769015769805</v>
       </c>
       <c r="F187">
-        <v>547.5105553906476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>488.6</v>
+        <v>544.2</v>
       </c>
       <c r="B188">
-        <v>106945.2842184277</v>
+        <v>58829.23617105398</v>
       </c>
       <c r="C188">
-        <v>9060.819811630663</v>
+        <v>5608.058920975234</v>
       </c>
       <c r="D188">
-        <v>44238.7815850896</v>
+        <v>50943.68671101439</v>
       </c>
       <c r="E188">
-        <v>8423.681080639704</v>
+        <v>2684.584252937129</v>
       </c>
       <c r="F188">
-        <v>390.3840108526407</v>
+        <v>535.1814126320404</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>490.9</v>
+        <v>546.5</v>
       </c>
       <c r="B189">
-        <v>100905.0515194217</v>
+        <v>63023.36962387127</v>
       </c>
       <c r="C189">
-        <v>9673.428765038258</v>
+        <v>5668.913223428839</v>
       </c>
       <c r="D189">
-        <v>43685.84697495664</v>
+        <v>49438.19208692777</v>
       </c>
       <c r="E189">
-        <v>7735.33710315737</v>
+        <v>3804.399490104462</v>
       </c>
       <c r="F189">
-        <v>313.388077926541</v>
+        <v>470.3628252640791</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>493.1</v>
+        <v>548.7</v>
       </c>
       <c r="B190">
-        <v>94918.74198124222</v>
+        <v>60339.93205700081</v>
       </c>
       <c r="C190">
-        <v>7741.141676993338</v>
+        <v>5812.339077949664</v>
       </c>
       <c r="D190">
-        <v>41939.12691309033</v>
+        <v>50302.93635954056</v>
       </c>
       <c r="E190">
-        <v>8073.877646435134</v>
+        <v>3180.309716960162</v>
       </c>
       <c r="F190">
-        <v>786.261533388534</v>
+        <v>595.3189590860311</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>495.4</v>
+        <v>551.3</v>
       </c>
       <c r="B191">
-        <v>95188.50928223641</v>
+        <v>54906.77856888114</v>
       </c>
       <c r="C191">
-        <v>8293.750630400948</v>
+        <v>6505.478724201568</v>
       </c>
       <c r="D191">
-        <v>40606.1923029574</v>
+        <v>47656.72504535565</v>
       </c>
       <c r="E191">
-        <v>7195.533668952802</v>
+        <v>3191.839985062364</v>
       </c>
       <c r="F191">
-        <v>639.2656004624342</v>
+        <v>191.176208148335</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>497.7</v>
+        <v>553.5</v>
       </c>
       <c r="B192">
-        <v>83598.27658323049</v>
+        <v>58543.34100201057</v>
       </c>
       <c r="C192">
-        <v>8706.359583808535</v>
+        <v>4928.904578722393</v>
       </c>
       <c r="D192">
-        <v>39163.25769282446</v>
+        <v>48821.46931796844</v>
       </c>
       <c r="E192">
-        <v>7057.189691470471</v>
+        <v>2757.750211918064</v>
       </c>
       <c r="F192">
-        <v>972.2696675363362</v>
+        <v>786.132341970287</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>500.3</v>
+        <v>555.8</v>
       </c>
       <c r="B193">
-        <v>82116.27440174557</v>
+        <v>65617.47445482784</v>
       </c>
       <c r="C193">
-        <v>8213.656661573641</v>
+        <v>2739.758881175998</v>
       </c>
       <c r="D193">
-        <v>37181.67943789154</v>
+        <v>48405.97469388178</v>
       </c>
       <c r="E193">
-        <v>6898.192151707832</v>
+        <v>2407.565449085393</v>
       </c>
       <c r="F193">
-        <v>255.6655694459629</v>
+        <v>521.3137546023275</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>502.2</v>
+        <v>558.1</v>
       </c>
       <c r="B194">
-        <v>82111.73434604504</v>
+        <v>52701.60790764503</v>
       </c>
       <c r="C194">
-        <v>9146.681449171214</v>
+        <v>5710.613183629584</v>
       </c>
       <c r="D194">
-        <v>36773.60302082519</v>
+        <v>47070.48006979516</v>
       </c>
       <c r="E194">
-        <v>6227.386257265904</v>
+        <v>4367.380686252717</v>
       </c>
       <c r="F194">
-        <v>408.1471900722295</v>
+        <v>236.4951672343661</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>504.8</v>
+        <v>560.4</v>
       </c>
       <c r="B195">
-        <v>76519.73216456013</v>
+        <v>51665.74136046231</v>
       </c>
       <c r="C195">
-        <v>7213.978526936316</v>
+        <v>5161.467486083189</v>
       </c>
       <c r="D195">
-        <v>34102.02476589229</v>
+        <v>47384.9854457085</v>
       </c>
       <c r="E195">
-        <v>5458.388717503265</v>
+        <v>4377.195923420049</v>
       </c>
       <c r="F195">
-        <v>241.5430919818562</v>
+        <v>371.6765798664048</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>507.1</v>
+        <v>563</v>
       </c>
       <c r="B196">
-        <v>77669.49946555433</v>
+        <v>55772.58787234254</v>
       </c>
       <c r="C196">
-        <v>9156.587480343904</v>
+        <v>3984.60713233509</v>
       </c>
       <c r="D196">
-        <v>35269.09015575932</v>
+        <v>48278.77413152359</v>
       </c>
       <c r="E196">
-        <v>4760.044740020933</v>
+        <v>2568.726191522243</v>
       </c>
       <c r="F196">
-        <v>524.5471590557581</v>
+        <v>517.5338289287123</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>509.4</v>
+        <v>565.2</v>
       </c>
       <c r="B197">
-        <v>75349.2667665484</v>
+        <v>52559.15030547208</v>
       </c>
       <c r="C197">
-        <v>8459.196433751513</v>
+        <v>7758.0329868559</v>
       </c>
       <c r="D197">
-        <v>33226.15554562639</v>
+        <v>47203.51840413638</v>
       </c>
       <c r="E197">
-        <v>4551.700762538602</v>
+        <v>4024.636418377943</v>
       </c>
       <c r="F197">
-        <v>557.5512261296584</v>
+        <v>642.4899627506625</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>511.6</v>
+        <v>567.5</v>
       </c>
       <c r="B198">
-        <v>62332.95722836889</v>
+        <v>53123.28375828936</v>
       </c>
       <c r="C198">
-        <v>7906.909345706597</v>
+        <v>3988.887289309519</v>
       </c>
       <c r="D198">
-        <v>31739.43548376009</v>
+        <v>48028.02378004974</v>
       </c>
       <c r="E198">
-        <v>4490.241305816366</v>
+        <v>2474.451655545276</v>
       </c>
       <c r="F198">
-        <v>260.4246815916514</v>
+        <v>477.671375382703</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>513.8</v>
+        <v>569.7</v>
       </c>
       <c r="B199">
-        <v>67026.64769018936</v>
+        <v>46689.84619141891</v>
       </c>
       <c r="C199">
-        <v>9254.6222576617</v>
+        <v>6202.313143830341</v>
       </c>
       <c r="D199">
-        <v>36562.71542189382</v>
+        <v>47542.76805266252</v>
       </c>
       <c r="E199">
-        <v>4218.781849094139</v>
+        <v>3190.361882400976</v>
       </c>
       <c r="F199">
-        <v>353.2981370536428</v>
+        <v>182.6275092046532</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>516.3</v>
+        <v>572.3</v>
       </c>
       <c r="B200">
-        <v>64038.56866953087</v>
+        <v>44716.69270329923</v>
       </c>
       <c r="C200">
-        <v>8917.0232939743</v>
+        <v>3955.452790082249</v>
       </c>
       <c r="D200">
-        <v>36177.35171522755</v>
+        <v>44966.55673847762</v>
       </c>
       <c r="E200">
-        <v>4636.668830091604</v>
+        <v>1911.892150503178</v>
       </c>
       <c r="F200">
-        <v>756.5634273513625</v>
+        <v>738.484758266959</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>518.8</v>
+        <v>574.5</v>
       </c>
       <c r="B201">
-        <v>52950.48964887224</v>
+        <v>44373.25513642865</v>
       </c>
       <c r="C201">
-        <v>8709.4243302869</v>
+        <v>4808.878644603074</v>
       </c>
       <c r="D201">
-        <v>31871.98800856132</v>
+        <v>44751.3010110904</v>
       </c>
       <c r="E201">
-        <v>3974.555811089068</v>
+        <v>3047.802377358878</v>
       </c>
       <c r="F201">
-        <v>209.8287176490804</v>
+        <v>283.4408920889091</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>521.2</v>
+        <v>576.8</v>
       </c>
       <c r="B202">
-        <v>47696.33378904004</v>
+        <v>45807.38858924594</v>
       </c>
       <c r="C202">
-        <v>8656.929325146975</v>
+        <v>4539.732947056678</v>
       </c>
       <c r="D202">
-        <v>29262.83885016169</v>
+        <v>46175.80638700376</v>
       </c>
       <c r="E202">
-        <v>2789.327312846628</v>
+        <v>2457.617614526211</v>
       </c>
       <c r="F202">
-        <v>332.9633963348911</v>
+        <v>528.6223047209497</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>523.4</v>
+        <v>579</v>
       </c>
       <c r="B203">
-        <v>43870.02425086052</v>
+        <v>49263.95102237548</v>
       </c>
       <c r="C203">
-        <v>5784.642237102093</v>
+        <v>5643.158801577503</v>
       </c>
       <c r="D203">
-        <v>24546.11878829539</v>
+        <v>47920.55065961654</v>
       </c>
       <c r="E203">
-        <v>3597.867856124401</v>
+        <v>2613.527841381911</v>
       </c>
       <c r="F203">
-        <v>275.8368517968826</v>
+        <v>603.5784385428999</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>525.9</v>
+        <v>581.3</v>
       </c>
       <c r="B204">
-        <v>45231.94523020202</v>
+        <v>49078.08447519265</v>
       </c>
       <c r="C204">
-        <v>7037.043273414693</v>
+        <v>5094.013104031108</v>
       </c>
       <c r="D204">
-        <v>25400.75508162916</v>
+        <v>45925.05603552988</v>
       </c>
       <c r="E204">
-        <v>3645.754837121863</v>
+        <v>3483.343078549244</v>
       </c>
       <c r="F204">
-        <v>239.1021420946022</v>
+        <v>518.7598511749386</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>528.1</v>
+        <v>583.9</v>
       </c>
       <c r="B205">
-        <v>40825.6356920225</v>
+        <v>46654.93098707299</v>
       </c>
       <c r="C205">
-        <v>6654.756185369763</v>
+        <v>4387.152750282994</v>
       </c>
       <c r="D205">
-        <v>22894.03501976285</v>
+        <v>48508.844721345</v>
       </c>
       <c r="E205">
-        <v>2624.29538039963</v>
+        <v>3214.873346651437</v>
       </c>
       <c r="F205">
-        <v>211.9755975565935</v>
+        <v>204.6171002372442</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>530.3</v>
+        <v>586.2</v>
       </c>
       <c r="B206">
-        <v>37419.32615384298</v>
+        <v>43369.06443989016</v>
       </c>
       <c r="C206">
-        <v>7482.46909732488</v>
+        <v>3478.007052736577</v>
       </c>
       <c r="D206">
-        <v>21377.31495789655</v>
+        <v>47543.35009725834</v>
       </c>
       <c r="E206">
-        <v>3202.835923677403</v>
+        <v>2964.688583818761</v>
       </c>
       <c r="F206">
-        <v>454.8490530185867</v>
+        <v>219.7985128692845</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>532.5</v>
+        <v>588.4</v>
       </c>
       <c r="B207">
-        <v>39603.01661566347</v>
+        <v>46585.62687301969</v>
       </c>
       <c r="C207">
-        <v>6780.18200927995</v>
+        <v>1591.43290725742</v>
       </c>
       <c r="D207">
-        <v>19470.59489603024</v>
+        <v>46018.09436987112</v>
       </c>
       <c r="E207">
-        <v>3361.376466955167</v>
+        <v>3350.59881067447</v>
       </c>
       <c r="F207">
-        <v>797.722508480578</v>
+        <v>884.7546466912368</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>534.8</v>
+        <v>590.7</v>
       </c>
       <c r="B208">
-        <v>46712.78391665754</v>
+        <v>50119.76032583688</v>
       </c>
       <c r="C208">
-        <v>5692.790962687555</v>
+        <v>2412.287209711007</v>
       </c>
       <c r="D208">
-        <v>19197.66028589731</v>
+        <v>50052.59974578449</v>
       </c>
       <c r="E208">
-        <v>1973.032489472835</v>
+        <v>3110.414047841794</v>
       </c>
       <c r="F208">
-        <v>430.72657555448</v>
+        <v>409.9360593232752</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>537.3</v>
+        <v>592.9</v>
       </c>
       <c r="B209">
-        <v>40714.70489599904</v>
+        <v>47326.3227589664</v>
       </c>
       <c r="C209">
-        <v>5745.191999000155</v>
+        <v>5415.713064231864</v>
       </c>
       <c r="D209">
-        <v>17502.29657923105</v>
+        <v>50507.34401839727</v>
       </c>
       <c r="E209">
-        <v>1750.9194704703</v>
+        <v>2126.324274697499</v>
       </c>
       <c r="F209">
-        <v>713.9918658521979</v>
+        <v>284.8921931452256</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>539.3</v>
+        <v>595.2</v>
       </c>
       <c r="B210">
-        <v>41296.24167947222</v>
+        <v>40030.4562117837</v>
       </c>
       <c r="C210">
-        <v>7313.112828050245</v>
+        <v>1266.567366685436</v>
       </c>
       <c r="D210">
-        <v>16988.00561389806</v>
+        <v>50241.84939431062</v>
       </c>
       <c r="E210">
-        <v>3433.229055268273</v>
+        <v>1996.139511864823</v>
       </c>
       <c r="F210">
-        <v>506.6040980903733</v>
+        <v>650.0736057772659</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>541.9</v>
+        <v>597.5</v>
       </c>
       <c r="B211">
-        <v>41424.23949798731</v>
+        <v>50414.58966460088</v>
       </c>
       <c r="C211">
-        <v>5410.409905815333</v>
+        <v>3537.421669139056</v>
       </c>
       <c r="D211">
-        <v>13616.42735896515</v>
+        <v>50016.35477022399</v>
       </c>
       <c r="E211">
-        <v>1164.231515505633</v>
+        <v>2315.954749032155</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>555.2550184093066</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>544.2</v>
+        <v>600</v>
       </c>
       <c r="B212">
-        <v>33014.00679898138</v>
+        <v>52723.86515679344</v>
       </c>
       <c r="C212">
-        <v>5633.018859222921</v>
+        <v>4073.13286745818</v>
       </c>
       <c r="D212">
-        <v>14163.4927488322</v>
+        <v>52230.3823527385</v>
       </c>
       <c r="E212">
-        <v>1215.887538023294</v>
+        <v>2853.580006822729</v>
       </c>
       <c r="F212">
-        <v>533.0040670739019</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>546.5</v>
-      </c>
-      <c r="B213">
-        <v>36943.77409997558</v>
-      </c>
-      <c r="C213">
-        <v>5635.627812630515</v>
-      </c>
-      <c r="D213">
-        <v>12290.55813869925</v>
-      </c>
-      <c r="E213">
-        <v>2317.543560540967</v>
-      </c>
-      <c r="F213">
-        <v>466.0081341478021</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>548.7</v>
-      </c>
-      <c r="B214">
-        <v>34007.46456179595</v>
-      </c>
-      <c r="C214">
-        <v>5723.340724585596</v>
-      </c>
-      <c r="D214">
-        <v>12803.83807683294</v>
-      </c>
-      <c r="E214">
-        <v>1676.08410381873</v>
-      </c>
-      <c r="F214">
-        <v>588.8815896097951</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>551.3</v>
-      </c>
-      <c r="B215">
-        <v>28275.46238031115</v>
-      </c>
-      <c r="C215">
-        <v>6350.637802350735</v>
-      </c>
-      <c r="D215">
-        <v>9742.259821900054</v>
-      </c>
-      <c r="E215">
-        <v>1667.086564056099</v>
-      </c>
-      <c r="F215">
-        <v>182.277491519422</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>553.5</v>
-      </c>
-      <c r="B216">
-        <v>31659.15284213152</v>
-      </c>
-      <c r="C216">
-        <v>4718.350714305805</v>
-      </c>
-      <c r="D216">
-        <v>10555.53976003374</v>
-      </c>
-      <c r="E216">
-        <v>1215.627107333864</v>
-      </c>
-      <c r="F216">
-        <v>775.1509469814151</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>555.8</v>
-      </c>
-      <c r="B217">
-        <v>38468.92014312571</v>
-      </c>
-      <c r="C217">
-        <v>2470.95966771341</v>
-      </c>
-      <c r="D217">
-        <v>9772.605149900799</v>
-      </c>
-      <c r="E217">
-        <v>847.2831298515327</v>
-      </c>
-      <c r="F217">
-        <v>508.1550140553153</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>558.1</v>
-      </c>
-      <c r="B218">
-        <v>25288.68744411979</v>
-      </c>
-      <c r="C218">
-        <v>5383.568621120983</v>
-      </c>
-      <c r="D218">
-        <v>8069.670539767842</v>
-      </c>
-      <c r="E218">
-        <v>2788.939152369197</v>
-      </c>
-      <c r="F218">
-        <v>221.1590811292155</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>560.4</v>
-      </c>
-      <c r="B219">
-        <v>23988.45474511398</v>
-      </c>
-      <c r="C219">
-        <v>4776.177574528592</v>
-      </c>
-      <c r="D219">
-        <v>8016.735929634891</v>
-      </c>
-      <c r="E219">
-        <v>2780.595174886866</v>
-      </c>
-      <c r="F219">
-        <v>354.1631482031174</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>563</v>
-      </c>
-      <c r="B220">
-        <v>27796.45256362907</v>
-      </c>
-      <c r="C220">
-        <v>3533.474652293695</v>
-      </c>
-      <c r="D220">
-        <v>8495.157674701997</v>
-      </c>
-      <c r="E220">
-        <v>951.5976351242268</v>
-      </c>
-      <c r="F220">
-        <v>497.5590501127441</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>565.2</v>
-      </c>
-      <c r="B221">
-        <v>24330.14302544956</v>
-      </c>
-      <c r="C221">
-        <v>7251.187564248776</v>
-      </c>
-      <c r="D221">
-        <v>7068.437612835685</v>
-      </c>
-      <c r="E221">
-        <v>2390.13817840199</v>
-      </c>
-      <c r="F221">
-        <v>620.4325055747371</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>567.5</v>
-      </c>
-      <c r="B222">
-        <v>24629.91032644363</v>
-      </c>
-      <c r="C222">
-        <v>3423.79651765637</v>
-      </c>
-      <c r="D222">
-        <v>7525.503002702757</v>
-      </c>
-      <c r="E222">
-        <v>821.7942009196593</v>
-      </c>
-      <c r="F222">
-        <v>453.4365726486375</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>569.7</v>
-      </c>
-      <c r="B223">
-        <v>17943.60078826411</v>
-      </c>
-      <c r="C223">
-        <v>5581.509429611455</v>
-      </c>
-      <c r="D223">
-        <v>6688.782940836445</v>
-      </c>
-      <c r="E223">
-        <v>1520.334744197424</v>
-      </c>
-      <c r="F223">
-        <v>156.3100281106305</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>572.3</v>
-      </c>
-      <c r="B224">
-        <v>15671.59860677921</v>
-      </c>
-      <c r="C224">
-        <v>3268.806507376576</v>
-      </c>
-      <c r="D224">
-        <v>3697.204685903558</v>
-      </c>
-      <c r="E224">
-        <v>221.3372044347968</v>
-      </c>
-      <c r="F224">
-        <v>709.7059300202574</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>574.5</v>
-      </c>
-      <c r="B225">
-        <v>15075.28906859969</v>
-      </c>
-      <c r="C225">
-        <v>4066.51941933166</v>
-      </c>
-      <c r="D225">
-        <v>3130.484624037254</v>
-      </c>
-      <c r="E225">
-        <v>1339.877747712561</v>
-      </c>
-      <c r="F225">
-        <v>252.5793854822504</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>576.8</v>
-      </c>
-      <c r="B226">
-        <v>16245.05636959388</v>
-      </c>
-      <c r="C226">
-        <v>3739.128372739266</v>
-      </c>
-      <c r="D226">
-        <v>4187.550013904303</v>
-      </c>
-      <c r="E226">
-        <v>731.5337702302293</v>
-      </c>
-      <c r="F226">
-        <v>495.5834525561507</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>579</v>
-      </c>
-      <c r="B227">
-        <v>19448.74683141436</v>
-      </c>
-      <c r="C227">
-        <v>4786.84128469435</v>
-      </c>
-      <c r="D227">
-        <v>5580.829952037991</v>
-      </c>
-      <c r="E227">
-        <v>870.0743135079936</v>
-      </c>
-      <c r="F227">
-        <v>568.4569080181437</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>581.3</v>
-      </c>
-      <c r="B228">
-        <v>18998.51413240844</v>
-      </c>
-      <c r="C228">
-        <v>4179.450238101945</v>
-      </c>
-      <c r="D228">
-        <v>3217.895341905049</v>
-      </c>
-      <c r="E228">
-        <v>1721.730336025663</v>
-      </c>
-      <c r="F228">
-        <v>481.4609750920439</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>583.9</v>
-      </c>
-      <c r="B229">
-        <v>16276.51195092353</v>
-      </c>
-      <c r="C229">
-        <v>3406.747315867047</v>
-      </c>
-      <c r="D229">
-        <v>5386.317086972147</v>
-      </c>
-      <c r="E229">
-        <v>1432.732796263028</v>
-      </c>
-      <c r="F229">
-        <v>164.8568770016724</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>586.2</v>
-      </c>
-      <c r="B230">
-        <v>12726.27925191773</v>
-      </c>
-      <c r="C230">
-        <v>2439.356269274635</v>
-      </c>
-      <c r="D230">
-        <v>4053.38247683919</v>
-      </c>
-      <c r="E230">
-        <v>1164.388818780688</v>
-      </c>
-      <c r="F230">
-        <v>177.8609440755725</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>588.4</v>
-      </c>
-      <c r="B231">
-        <v>15689.96971373821</v>
-      </c>
-      <c r="C231">
-        <v>497.0691812297373</v>
-      </c>
-      <c r="D231">
-        <v>2176.662414972907</v>
-      </c>
-      <c r="E231">
-        <v>1532.92936205846</v>
-      </c>
-      <c r="F231">
-        <v>840.7343995375658</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>590.7</v>
-      </c>
-      <c r="B232">
-        <v>18959.73701473229</v>
-      </c>
-      <c r="C232">
-        <v>1259.67813463731</v>
-      </c>
-      <c r="D232">
-        <v>5843.727804839935</v>
-      </c>
-      <c r="E232">
-        <v>1274.585384576121</v>
-      </c>
-      <c r="F232">
-        <v>363.7384666114657</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>592.9</v>
-      </c>
-      <c r="B233">
-        <v>15913.42747655277</v>
-      </c>
-      <c r="C233">
-        <v>4207.391046592413</v>
-      </c>
-      <c r="D233">
-        <v>5947.007742973652</v>
-      </c>
-      <c r="E233">
-        <v>273.1259278538935</v>
-      </c>
-      <c r="F233">
-        <v>236.6119220734591</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="1">
-        <v>595.2</v>
-      </c>
-      <c r="B234">
-        <v>8353.194777546962</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
-        <v>5314.073132840695</v>
-      </c>
-      <c r="E234">
-        <v>124.7819503715607</v>
-      </c>
-      <c r="F234">
-        <v>599.6159891473591</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="1">
-        <v>597.5</v>
-      </c>
-      <c r="B235">
-        <v>18472.96207854104</v>
-      </c>
-      <c r="C235">
-        <v>2212.608953407595</v>
-      </c>
-      <c r="D235">
-        <v>4721.138522707744</v>
-      </c>
-      <c r="E235">
-        <v>426.4379728892297</v>
-      </c>
-      <c r="F235">
-        <v>502.6200562212611</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="1">
-        <v>600</v>
-      </c>
-      <c r="B236">
-        <v>20494.88305788254</v>
-      </c>
-      <c r="C236">
-        <v>2685.009989720205</v>
-      </c>
-      <c r="D236">
-        <v>6535.774816041496</v>
-      </c>
-      <c r="E236">
-        <v>944.324953886691</v>
-      </c>
-      <c r="F236">
-        <v>585.885346518979</v>
+        <v>640.886988661522</v>
       </c>
     </row>
   </sheetData>
